--- a/计划表.xlsx
+++ b/计划表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglei/projects/webot/webot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanglei/projects/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="674">
   <si>
     <t>非功能需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3968,22 +3968,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bot平台建设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许中杰、喻听聪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>喻听聪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7月31~8月04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3996,14 +3984,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王磊、许中杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭琦、喻听聪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4012,10 +3992,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8月07~8月11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8月14~8月19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4040,22 +4016,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成查询会议时间开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预定、取消会议开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>课程提醒与申报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班车推荐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4065,14 +4029,6 @@
   </si>
   <si>
     <t>喻听聪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明确接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联调</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4188,14 +4144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成配置、包含帮助语、中英文下的区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>智能问答场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4208,68 +4156,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明确需求和对话设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> bot平台架构设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IM群聊中查询会议时间？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提醒、差旅攻略、引导欢迎、一卡通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bot与IM集成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程提醒？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要ilearning接入welink，在评估插件适配工作量</t>
-    <rPh sb="0" eb="1">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>jie'ru</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ping'gu</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>cha'jian</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>shi'pei</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>gong'zuo</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>liang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘志华</t>
-    <rPh sb="0" eb="1">
-      <t>liu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hua</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4279,29 +4170,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ji'lu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘志华</t>
-    <rPh sb="0" eb="1">
-      <t>liu'zhi'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录历史消息、用户范围</t>
-    <rPh sb="0" eb="1">
-      <t>ji'lu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>li'shi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xiao'xi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yong'hu'fan'wei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4355,28 +4223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明确移动，pc下的交互需求</t>
-    <rPh sb="0" eb="1">
-      <t>ming'que</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi'dong</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jiao'hu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>@建群</t>
     <rPh sb="1" eb="2">
       <t>jian'qun</t>
@@ -4390,6 +4236,181 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>hui'yi'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫志刚</t>
+    <rPh sb="0" eb="1">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi'gang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成与profile的联调</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lian'tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成与Im联调</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lian'tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与IM联调</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lian'tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程提醒</t>
+    <rPh sb="0" eb="1">
+      <t>ke'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周完成香港dmz部署及测试环境迁移</t>
+    <rPh sb="0" eb="1">
+      <t>ben'zhou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang'gang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu'shu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>huan'jing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>qian'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能开发</t>
+    <rPh sb="0" eb="1">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻听聪、彭琪</t>
+    <rPh sb="4" eb="5">
+      <t>peng'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户范围</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录历史消息</t>
+    <rPh sb="0" eb="1">
+      <t>ji'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成用户范围设定和记录新用户特性</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fan'wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>she'ding</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji'lu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xin'yong'hu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>te'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成查询会议时间、预定、取消的开发</t>
+    <rPh sb="9" eb="10">
+      <t>yu'ding</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qu'xiao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kai'fa</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4695,7 +4716,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4759,6 +4780,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4960,7 +4987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5307,9 +5334,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5348,12 +5372,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5409,186 +5427,177 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5607,7 +5616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5927,7 +5936,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="159" t="s">
         <v>372</v>
       </c>
       <c r="B2" s="93" t="s">
@@ -5944,7 +5953,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="164"/>
+      <c r="A3" s="160"/>
       <c r="B3" s="89" t="s">
         <v>375</v>
       </c>
@@ -5959,7 +5968,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="164"/>
+      <c r="A4" s="160"/>
       <c r="B4" s="89" t="s">
         <v>394</v>
       </c>
@@ -5974,7 +5983,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="164"/>
+      <c r="A5" s="160"/>
       <c r="B5" s="89" t="s">
         <v>393</v>
       </c>
@@ -5989,7 +5998,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="165"/>
+      <c r="A6" s="161"/>
       <c r="B6" s="89" t="s">
         <v>401</v>
       </c>
@@ -6004,7 +6013,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="158" t="s">
         <v>363</v>
       </c>
       <c r="B7" s="89" t="s">
@@ -6021,7 +6030,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="162"/>
+      <c r="A8" s="158"/>
       <c r="B8" s="95" t="s">
         <v>384</v>
       </c>
@@ -6036,7 +6045,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="162"/>
+      <c r="A9" s="158"/>
       <c r="B9" s="94" t="s">
         <v>391</v>
       </c>
@@ -6051,7 +6060,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="162"/>
+      <c r="A10" s="158"/>
       <c r="B10" s="94" t="s">
         <v>392</v>
       </c>
@@ -6066,7 +6075,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="162"/>
+      <c r="A11" s="158"/>
       <c r="B11" s="89" t="s">
         <v>379</v>
       </c>
@@ -6081,7 +6090,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="162"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="89" t="s">
         <v>383</v>
       </c>
@@ -6096,7 +6105,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="162"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="89" t="s">
         <v>378</v>
       </c>
@@ -6111,7 +6120,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="162"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="89" t="s">
         <v>397</v>
       </c>
@@ -6126,14 +6135,14 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="162"/>
+      <c r="A15" s="158"/>
       <c r="B15" s="89"/>
       <c r="C15" s="89"/>
       <c r="D15" s="94"/>
       <c r="E15" s="89"/>
     </row>
     <row r="18" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="162" t="s">
         <v>402</v>
       </c>
       <c r="B18" s="76" t="s">
@@ -6146,7 +6155,7 @@
       <c r="E18" s="89"/>
     </row>
     <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="167"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="76"/>
       <c r="C19" s="89"/>
       <c r="D19" s="4" t="s">
@@ -6155,7 +6164,7 @@
       <c r="E19" s="89"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="167"/>
+      <c r="A20" s="163"/>
       <c r="B20" s="76"/>
       <c r="C20" s="89"/>
       <c r="D20" s="4" t="s">
@@ -6164,7 +6173,7 @@
       <c r="E20" s="89"/>
     </row>
     <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="167"/>
+      <c r="A21" s="163"/>
       <c r="B21" s="76"/>
       <c r="C21" s="89"/>
       <c r="D21" s="4" t="s">
@@ -6173,7 +6182,7 @@
       <c r="E21" s="89"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="167"/>
+      <c r="A22" s="163"/>
       <c r="B22" s="76"/>
       <c r="C22" s="89"/>
       <c r="D22" s="4" t="s">
@@ -6182,7 +6191,7 @@
       <c r="E22" s="89"/>
     </row>
     <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="167"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="76"/>
       <c r="C23" s="89"/>
       <c r="D23" s="4" t="s">
@@ -6191,14 +6200,14 @@
       <c r="E23" s="89"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="168"/>
+      <c r="A24" s="164"/>
       <c r="B24" s="76"/>
       <c r="C24" s="92"/>
       <c r="D24" s="4"/>
       <c r="E24" s="92"/>
     </row>
     <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="166" t="s">
+      <c r="A25" s="162" t="s">
         <v>403</v>
       </c>
       <c r="B25" s="76"/>
@@ -6209,7 +6218,7 @@
       <c r="E25" s="89"/>
     </row>
     <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="167"/>
+      <c r="A26" s="163"/>
       <c r="B26" s="76"/>
       <c r="C26" s="89"/>
       <c r="D26" s="98" t="s">
@@ -6218,7 +6227,7 @@
       <c r="E26" s="89"/>
     </row>
     <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="168"/>
+      <c r="A27" s="164"/>
       <c r="B27" s="76"/>
       <c r="C27" s="89"/>
       <c r="D27" s="4" t="s">
@@ -6291,42 +6300,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="184" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="191" t="s">
+      <c r="C2" s="187" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="194" t="s">
+      <c r="D2" s="190" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="189"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="195"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="191"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="189"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="195"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="191"/>
     </row>
     <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="190"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="193"/>
-      <c r="D5" s="195"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="191"/>
     </row>
     <row r="6" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
@@ -6338,7 +6347,7 @@
       <c r="C6" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="195"/>
+      <c r="D6" s="191"/>
     </row>
     <row r="7" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
@@ -6350,43 +6359,43 @@
       <c r="C7" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="195"/>
+      <c r="D7" s="191"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="184" t="s">
         <v>176</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="187" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="195"/>
+      <c r="D8" s="191"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="189"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="192"/>
-      <c r="D9" s="195"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="191"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="189"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="192"/>
-      <c r="D10" s="195"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="191"/>
     </row>
     <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="190"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="193"/>
-      <c r="D11" s="196"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="192"/>
     </row>
     <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
@@ -6398,7 +6407,7 @@
       <c r="C12" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="194" t="s">
+      <c r="D12" s="190" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6412,63 +6421,63 @@
       <c r="C13" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="195"/>
+      <c r="D13" s="191"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="188" t="s">
+      <c r="A14" s="184" t="s">
         <v>185</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="191" t="s">
+      <c r="C14" s="187" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="195"/>
+      <c r="D14" s="191"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="189"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="192"/>
-      <c r="D15" s="195"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="191"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="189"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="192"/>
-      <c r="D16" s="195"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="191"/>
     </row>
     <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="190"/>
+      <c r="A17" s="186"/>
       <c r="B17" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="193"/>
-      <c r="D17" s="195"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="191"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="199" t="s">
+      <c r="A18" s="195" t="s">
         <v>190</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="190" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="195"/>
+      <c r="D18" s="191"/>
     </row>
     <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="200"/>
+      <c r="A19" s="196"/>
       <c r="B19" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="196"/>
-      <c r="D19" s="195"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="191"/>
     </row>
     <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
@@ -6480,7 +6489,7 @@
       <c r="C20" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="196"/>
+      <c r="D20" s="192"/>
     </row>
     <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
@@ -6492,7 +6501,7 @@
       <c r="C21" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="194" t="s">
+      <c r="D21" s="190" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6506,43 +6515,43 @@
       <c r="C22" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="195"/>
+      <c r="D22" s="191"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="188" t="s">
+      <c r="A23" s="184" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="191" t="s">
+      <c r="C23" s="187" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="195"/>
+      <c r="D23" s="191"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="189"/>
+      <c r="A24" s="185"/>
       <c r="B24" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="192"/>
-      <c r="D24" s="195"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="191"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="189"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="192"/>
-      <c r="D25" s="195"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="191"/>
     </row>
     <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="190"/>
+      <c r="A26" s="186"/>
       <c r="B26" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="193"/>
-      <c r="D26" s="195"/>
+      <c r="C26" s="189"/>
+      <c r="D26" s="191"/>
     </row>
     <row r="27" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
@@ -6554,27 +6563,27 @@
       <c r="C27" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="195"/>
+      <c r="D27" s="191"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="188" t="s">
+      <c r="A28" s="184" t="s">
         <v>207</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="191" t="s">
+      <c r="C28" s="187" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="195"/>
+      <c r="D28" s="191"/>
     </row>
     <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="190"/>
+      <c r="A29" s="186"/>
       <c r="B29" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="193"/>
-      <c r="D29" s="196"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="192"/>
     </row>
     <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6587,7 +6596,7 @@
       <c r="C31" s="57"/>
     </row>
     <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="197" t="s">
+      <c r="A32" s="193" t="s">
         <v>190</v>
       </c>
       <c r="B32" s="59" t="s">
@@ -6596,14 +6605,14 @@
       <c r="C32" s="58"/>
     </row>
     <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="198"/>
+      <c r="A33" s="194"/>
       <c r="B33" s="62" t="s">
         <v>254</v>
       </c>
       <c r="C33" s="58"/>
     </row>
     <row r="34" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="197" t="s">
+      <c r="A34" s="193" t="s">
         <v>207</v>
       </c>
       <c r="B34" s="62" t="s">
@@ -6612,14 +6621,14 @@
       <c r="C34" s="58"/>
     </row>
     <row r="35" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="198"/>
+      <c r="A35" s="194"/>
       <c r="B35" s="61" t="s">
         <v>216</v>
       </c>
       <c r="C35" s="58"/>
     </row>
     <row r="36" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="197" t="s">
+      <c r="A36" s="193" t="s">
         <v>174</v>
       </c>
       <c r="B36" s="61" t="s">
@@ -6628,28 +6637,28 @@
       <c r="C36" s="58"/>
     </row>
     <row r="37" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="201"/>
+      <c r="A37" s="197"/>
       <c r="B37" s="59" t="s">
         <v>217</v>
       </c>
       <c r="C37" s="58"/>
     </row>
     <row r="38" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="201"/>
+      <c r="A38" s="197"/>
       <c r="B38" s="59" t="s">
         <v>218</v>
       </c>
       <c r="C38" s="58"/>
     </row>
     <row r="39" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="198"/>
+      <c r="A39" s="194"/>
       <c r="B39" s="59" t="s">
         <v>219</v>
       </c>
       <c r="C39" s="58"/>
     </row>
     <row r="40" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="197" t="s">
+      <c r="A40" s="193" t="s">
         <v>185</v>
       </c>
       <c r="B40" s="59" t="s">
@@ -6658,14 +6667,14 @@
       <c r="C40" s="58"/>
     </row>
     <row r="41" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="198"/>
+      <c r="A41" s="194"/>
       <c r="B41" s="59" t="s">
         <v>221</v>
       </c>
       <c r="C41" s="58"/>
     </row>
     <row r="42" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="197" t="s">
+      <c r="A42" s="193" t="s">
         <v>257</v>
       </c>
       <c r="B42" s="62" t="s">
@@ -6674,21 +6683,21 @@
       <c r="C42" s="58"/>
     </row>
     <row r="43" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="201"/>
+      <c r="A43" s="197"/>
       <c r="B43" s="61" t="s">
         <v>261</v>
       </c>
       <c r="C43" s="58"/>
     </row>
     <row r="44" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="198"/>
+      <c r="A44" s="194"/>
       <c r="B44" s="61" t="s">
         <v>262</v>
       </c>
       <c r="C44" s="58"/>
     </row>
     <row r="45" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="202" t="s">
+      <c r="A45" s="198" t="s">
         <v>212</v>
       </c>
       <c r="B45" s="62" t="s">
@@ -6697,28 +6706,28 @@
       <c r="C45" s="58"/>
     </row>
     <row r="46" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="203"/>
+      <c r="A46" s="199"/>
       <c r="B46" s="61" t="s">
         <v>256</v>
       </c>
       <c r="C46" s="58"/>
     </row>
     <row r="47" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="203"/>
+      <c r="A47" s="199"/>
       <c r="B47" s="62" t="s">
         <v>259</v>
       </c>
       <c r="C47" s="58"/>
     </row>
     <row r="48" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="204"/>
+      <c r="A48" s="200"/>
       <c r="B48" s="61" t="s">
         <v>260</v>
       </c>
       <c r="C48" s="58"/>
     </row>
     <row r="49" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="202" t="s">
+      <c r="A49" s="198" t="s">
         <v>213</v>
       </c>
       <c r="B49" s="61" t="s">
@@ -6727,35 +6736,35 @@
       <c r="C49" s="58"/>
     </row>
     <row r="50" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="203"/>
+      <c r="A50" s="199"/>
       <c r="B50" s="59" t="s">
         <v>223</v>
       </c>
       <c r="C50" s="58"/>
     </row>
     <row r="51" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="203"/>
+      <c r="A51" s="199"/>
       <c r="B51" s="59" t="s">
         <v>224</v>
       </c>
       <c r="C51" s="58"/>
     </row>
     <row r="52" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="203"/>
+      <c r="A52" s="199"/>
       <c r="B52" s="59" t="s">
         <v>225</v>
       </c>
       <c r="C52" s="58"/>
     </row>
     <row r="53" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="203"/>
+      <c r="A53" s="199"/>
       <c r="B53" s="59" t="s">
         <v>226</v>
       </c>
       <c r="C53" s="58"/>
     </row>
     <row r="54" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="204"/>
+      <c r="A54" s="200"/>
       <c r="B54" s="59" t="s">
         <v>227</v>
       </c>
@@ -7136,473 +7145,473 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="127" t="s">
         <v>576</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="128" t="s">
         <v>575</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="127" t="s">
         <v>533</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="127" t="s">
         <v>555</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="127" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="180" t="s">
         <v>530</v>
       </c>
-      <c r="B2" s="127" t="s">
-        <v>629</v>
-      </c>
-      <c r="C2" s="123" t="s">
+      <c r="B2" s="126" t="s">
+        <v>620</v>
+      </c>
+      <c r="C2" s="122" t="s">
         <v>540</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="122" t="s">
         <v>556</v>
       </c>
-      <c r="E2" s="123" t="s">
+      <c r="E2" s="122" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="184"/>
+      <c r="A3" s="180"/>
       <c r="B3" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="122" t="s">
         <v>546</v>
       </c>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="122" t="s">
         <v>556</v>
       </c>
-      <c r="E3" s="123" t="s">
+      <c r="E3" s="122" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="184"/>
-      <c r="B4" s="125" t="s">
+      <c r="A4" s="180"/>
+      <c r="B4" s="124" t="s">
         <v>582</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="122" t="s">
         <v>540</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="122" t="s">
         <v>556</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="122" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
-      <c r="B5" s="127" t="s">
+      <c r="A5" s="180"/>
+      <c r="B5" s="126" t="s">
         <v>562</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="122" t="s">
         <v>540</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="122" t="s">
         <v>563</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="122" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
-      <c r="B6" s="125" t="s">
+      <c r="A6" s="180"/>
+      <c r="B6" s="124" t="s">
         <v>566</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="122" t="s">
         <v>567</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="122" t="s">
         <v>557</v>
       </c>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="122" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="184"/>
-      <c r="B7" s="127" t="s">
+      <c r="A7" s="180"/>
+      <c r="B7" s="126" t="s">
         <v>597</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="122" t="s">
         <v>542</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="122" t="s">
         <v>572</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="122" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="184"/>
-      <c r="B8" s="125" t="s">
+      <c r="A8" s="180"/>
+      <c r="B8" s="124" t="s">
         <v>594</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="122" t="s">
         <v>544</v>
       </c>
-      <c r="D8" s="123" t="s">
+      <c r="D8" s="122" t="s">
         <v>592</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="122" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
-      <c r="B9" s="125" t="s">
+      <c r="A9" s="180"/>
+      <c r="B9" s="124" t="s">
         <v>606</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
-      <c r="B10" s="125" t="s">
+      <c r="A10" s="180"/>
+      <c r="B10" s="124" t="s">
         <v>598</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="122" t="s">
         <v>544</v>
       </c>
-      <c r="D10" s="123" t="s">
+      <c r="D10" s="122" t="s">
         <v>557</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="E10" s="122" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="165" t="s">
         <v>591</v>
       </c>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="126" t="s">
         <v>531</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="122" t="s">
         <v>534</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="122" t="s">
         <v>558</v>
       </c>
-      <c r="E11" s="123" t="s">
+      <c r="E11" s="122" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="170"/>
-      <c r="B12" s="127" t="s">
+      <c r="A12" s="166"/>
+      <c r="B12" s="126" t="s">
         <v>532</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="122" t="s">
         <v>535</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="122" t="s">
         <v>568</v>
       </c>
-      <c r="E12" s="123" t="s">
+      <c r="E12" s="122" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="170"/>
-      <c r="B13" s="127" t="s">
+      <c r="A13" s="166"/>
+      <c r="B13" s="126" t="s">
         <v>564</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="122" t="s">
         <v>565</v>
       </c>
-      <c r="D13" s="123" t="s">
+      <c r="D13" s="122" t="s">
         <v>574</v>
       </c>
-      <c r="E13" s="123" t="s">
+      <c r="E13" s="122" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="170"/>
-      <c r="B14" s="125" t="s">
+      <c r="A14" s="166"/>
+      <c r="B14" s="124" t="s">
         <v>589</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="122" t="s">
         <v>590</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="170"/>
-      <c r="B15" s="125" t="s">
+      <c r="A15" s="166"/>
+      <c r="B15" s="124" t="s">
         <v>604</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="170"/>
-      <c r="B16" s="127" t="s">
+      <c r="A16" s="166"/>
+      <c r="B16" s="126" t="s">
         <v>536</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="122" t="s">
         <v>537</v>
       </c>
-      <c r="D16" s="123" t="s">
+      <c r="D16" s="122" t="s">
         <v>559</v>
       </c>
-      <c r="E16" s="123" t="s">
+      <c r="E16" s="122" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="170"/>
-      <c r="B17" s="127" t="s">
+      <c r="A17" s="166"/>
+      <c r="B17" s="126" t="s">
         <v>538</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="122" t="s">
         <v>539</v>
       </c>
-      <c r="D17" s="123" t="s">
+      <c r="D17" s="122" t="s">
         <v>560</v>
       </c>
-      <c r="E17" s="123" t="s">
+      <c r="E17" s="122" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="170"/>
-      <c r="B18" s="125" t="s">
+      <c r="A18" s="166"/>
+      <c r="B18" s="124" t="s">
         <v>605</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="122" t="s">
         <v>537</v>
       </c>
-      <c r="D18" s="123" t="s">
+      <c r="D18" s="122" t="s">
         <v>559</v>
       </c>
-      <c r="E18" s="123" t="s">
+      <c r="E18" s="122" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="170"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
+      <c r="A19" s="166"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="171"/>
-      <c r="B20" s="125" t="s">
-        <v>617</v>
-      </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123" t="s">
-        <v>616</v>
+      <c r="A20" s="167"/>
+      <c r="B20" s="124" t="s">
+        <v>612</v>
+      </c>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="172" t="s">
+      <c r="A21" s="168" t="s">
         <v>541</v>
       </c>
-      <c r="B21" s="127" t="s">
-        <v>627</v>
-      </c>
-      <c r="C21" s="123" t="s">
+      <c r="B21" s="126" t="s">
+        <v>619</v>
+      </c>
+      <c r="C21" s="122" t="s">
         <v>542</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="122" t="s">
         <v>553</v>
       </c>
-      <c r="E21" s="123" t="s">
+      <c r="E21" s="122" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="172"/>
-      <c r="B22" s="125" t="s">
+      <c r="A22" s="168"/>
+      <c r="B22" s="124" t="s">
         <v>543</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="122" t="s">
         <v>542</v>
       </c>
-      <c r="D22" s="123" t="s">
+      <c r="D22" s="122" t="s">
         <v>561</v>
       </c>
-      <c r="E22" s="123" t="s">
+      <c r="E22" s="122" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="172"/>
+      <c r="A23" s="168"/>
       <c r="B23" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="172"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
+      <c r="A24" s="168"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="172"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
+      <c r="A25" s="168"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="168" t="s">
         <v>586</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="C26" s="123" t="s">
+      <c r="C26" s="122" t="s">
         <v>571</v>
       </c>
-      <c r="D26" s="123" t="s">
+      <c r="D26" s="122" t="s">
         <v>577</v>
       </c>
-      <c r="E26" s="123" t="s">
+      <c r="E26" s="122" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="172"/>
+      <c r="A27" s="168"/>
       <c r="B27" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="C27" s="123" t="s">
+      <c r="C27" s="122" t="s">
         <v>544</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="122" t="s">
         <v>588</v>
       </c>
-      <c r="E27" s="123" t="s">
+      <c r="E27" s="122" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="172"/>
+      <c r="A28" s="168"/>
       <c r="B28" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="122" t="s">
         <v>596</v>
       </c>
-      <c r="D28" s="123" t="s">
+      <c r="D28" s="122" t="s">
         <v>557</v>
       </c>
-      <c r="E28" s="123" t="s">
+      <c r="E28" s="122" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="172"/>
+      <c r="A29" s="168"/>
       <c r="B29" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="172"/>
+      <c r="A30" s="168"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="172"/>
+      <c r="A31" s="168"/>
       <c r="B31" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="C31" s="123" t="s">
+      <c r="C31" s="122" t="s">
         <v>540</v>
       </c>
-      <c r="D31" s="123" t="s">
+      <c r="D31" s="122" t="s">
         <v>554</v>
       </c>
-      <c r="E31" s="123" t="s">
+      <c r="E31" s="122" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="172"/>
-      <c r="B32" s="126" t="s">
+      <c r="A32" s="168"/>
+      <c r="B32" s="125" t="s">
         <v>578</v>
       </c>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="122" t="s">
         <v>579</v>
       </c>
-      <c r="D32" s="123" t="s">
+      <c r="D32" s="122" t="s">
         <v>580</v>
       </c>
-      <c r="E32" s="123" t="s">
+      <c r="E32" s="122" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="172"/>
+      <c r="A33" s="168"/>
       <c r="B33" s="21" t="s">
         <v>599</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="122" t="s">
         <v>540</v>
       </c>
-      <c r="D33" s="123" t="s">
+      <c r="D33" s="122" t="s">
         <v>600</v>
       </c>
-      <c r="E33" s="123" t="s">
+      <c r="E33" s="122" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="172"/>
-      <c r="B34" s="126" t="s">
+      <c r="A34" s="168"/>
+      <c r="B34" s="125" t="s">
         <v>601</v>
       </c>
-      <c r="C34" s="123" t="s">
+      <c r="C34" s="122" t="s">
         <v>579</v>
       </c>
-      <c r="D34" s="123" t="s">
+      <c r="D34" s="122" t="s">
         <v>560</v>
       </c>
-      <c r="E34" s="123" t="s">
+      <c r="E34" s="122" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="172"/>
+      <c r="A35" s="168"/>
       <c r="B35" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="C35" s="123" t="s">
+      <c r="C35" s="122" t="s">
         <v>540</v>
       </c>
-      <c r="D35" s="123" t="s">
+      <c r="D35" s="122" t="s">
         <v>563</v>
       </c>
-      <c r="E35" s="123" t="s">
+      <c r="E35" s="122" t="s">
         <v>585</v>
       </c>
     </row>
@@ -7825,34 +7834,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="207" t="s">
         <v>512</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="208" t="s">
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="204" t="s">
         <v>513</v>
       </c>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="210"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="206"/>
     </row>
     <row r="2" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="207" t="s">
         <v>521</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="208" t="s">
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="204" t="s">
         <v>522</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="210"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="206"/>
     </row>
     <row r="3" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
@@ -7908,7 +7917,7 @@
       <c r="H4" s="113" t="s">
         <v>485</v>
       </c>
-      <c r="I4" s="205" t="s">
+      <c r="I4" s="201" t="s">
         <v>490</v>
       </c>
     </row>
@@ -7937,7 +7946,7 @@
       <c r="H5" s="114" t="s">
         <v>519</v>
       </c>
-      <c r="I5" s="206"/>
+      <c r="I5" s="202"/>
     </row>
     <row r="6" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="113" t="s">
@@ -7964,7 +7973,7 @@
       <c r="H6" s="113" t="s">
         <v>481</v>
       </c>
-      <c r="I6" s="206"/>
+      <c r="I6" s="202"/>
     </row>
     <row r="7" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="113" t="s">
@@ -7991,7 +8000,7 @@
       <c r="H7" s="113" t="s">
         <v>478</v>
       </c>
-      <c r="I7" s="206"/>
+      <c r="I7" s="202"/>
     </row>
     <row r="8" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="113" t="s">
@@ -8015,10 +8024,10 @@
       <c r="G8" s="113" t="s">
         <v>488</v>
       </c>
-      <c r="H8" s="163" t="s">
+      <c r="H8" s="159" t="s">
         <v>486</v>
       </c>
-      <c r="I8" s="206"/>
+      <c r="I8" s="202"/>
     </row>
     <row r="9" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="113" t="s">
@@ -8042,8 +8051,8 @@
       <c r="G9" s="113" t="s">
         <v>481</v>
       </c>
-      <c r="H9" s="164"/>
-      <c r="I9" s="206"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="202"/>
     </row>
     <row r="10" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="113" t="s">
@@ -8067,8 +8076,8 @@
       <c r="G10" s="113" t="s">
         <v>501</v>
       </c>
-      <c r="H10" s="165"/>
-      <c r="I10" s="207"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="203"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="117"/>
@@ -8219,1939 +8228,1864 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I529"/>
+  <dimension ref="A1:G529"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="132" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="131" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="122" t="s">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="s">
         <v>524</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="129" t="s">
         <v>523</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="130" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="134" t="s">
-        <v>610</v>
-      </c>
-      <c r="E1" s="134" t="s">
+      <c r="D1" s="133" t="s">
+        <v>613</v>
+      </c>
+      <c r="E1" s="133" t="s">
+        <v>614</v>
+      </c>
+      <c r="F1" s="133" t="s">
+        <v>615</v>
+      </c>
+      <c r="G1" s="133" t="s">
         <v>618</v>
       </c>
-      <c r="F1" s="134" t="s">
-        <v>619</v>
-      </c>
-      <c r="G1" s="134" t="s">
-        <v>620</v>
-      </c>
-      <c r="H1" s="134" t="s">
-        <v>621</v>
-      </c>
-      <c r="I1" s="134" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="213" t="s">
-        <v>607</v>
-      </c>
-      <c r="B2" s="140" t="s">
-        <v>666</v>
-      </c>
-      <c r="C2" s="141" t="s">
-        <v>608</v>
-      </c>
-      <c r="D2" s="142"/>
+    </row>
+    <row r="2" spans="1:7" s="121" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="210" t="s">
+        <v>668</v>
+      </c>
+      <c r="B2" s="156" t="s">
+        <v>660</v>
+      </c>
+      <c r="C2" s="138"/>
+      <c r="D2" s="140"/>
       <c r="E2" s="142"/>
       <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-    </row>
-    <row r="3" spans="1:9" s="121" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="213"/>
-      <c r="B3" s="140" t="s">
+      <c r="G2" s="139"/>
+    </row>
+    <row r="3" spans="1:7" s="121" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="211"/>
+      <c r="B3" s="156" t="s">
+        <v>659</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="139"/>
+    </row>
+    <row r="4" spans="1:7" s="121" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="211"/>
+      <c r="B4" s="156" t="s">
+        <v>666</v>
+      </c>
+      <c r="C4" s="138"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="139"/>
+    </row>
+    <row r="5" spans="1:7" s="121" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="211"/>
+      <c r="B5" s="137" t="s">
+        <v>657</v>
+      </c>
+      <c r="C5" s="138" t="s">
+        <v>658</v>
+      </c>
+      <c r="D5" s="140"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="139"/>
+    </row>
+    <row r="6" spans="1:7" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="211"/>
+      <c r="B6" s="137" t="s">
+        <v>621</v>
+      </c>
+      <c r="C6" s="143"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+    </row>
+    <row r="7" spans="1:7" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="211"/>
+      <c r="B7" s="146" t="s">
+        <v>623</v>
+      </c>
+      <c r="C7" s="143"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+    </row>
+    <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="211"/>
+      <c r="B8" s="137" t="s">
+        <v>653</v>
+      </c>
+      <c r="C8" s="143" t="s">
+        <v>661</v>
+      </c>
+      <c r="D8" s="121"/>
+      <c r="E8" s="141" t="s">
+        <v>625</v>
+      </c>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+    </row>
+    <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="211"/>
+      <c r="B9" s="146" t="s">
+        <v>655</v>
+      </c>
+      <c r="C9" s="143" t="s">
+        <v>661</v>
+      </c>
+      <c r="D9" s="144" t="s">
+        <v>656</v>
+      </c>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+    </row>
+    <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="211"/>
+      <c r="B10" s="146" t="s">
+        <v>654</v>
+      </c>
+      <c r="C10" s="143" t="s">
+        <v>661</v>
+      </c>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144" t="s">
+        <v>671</v>
+      </c>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+    </row>
+    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="211"/>
+      <c r="B11" s="146" t="s">
+        <v>670</v>
+      </c>
+      <c r="C11" s="143" t="s">
+        <v>661</v>
+      </c>
+      <c r="D11" s="146" t="s">
+        <v>672</v>
+      </c>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="211"/>
+      <c r="B12" s="147" t="s">
+        <v>610</v>
+      </c>
+      <c r="C12" s="143" t="s">
+        <v>661</v>
+      </c>
+      <c r="D12" s="141" t="s">
+        <v>663</v>
+      </c>
+      <c r="E12" s="141" t="s">
+        <v>664</v>
+      </c>
+      <c r="F12" s="148" t="s">
+        <v>617</v>
+      </c>
+      <c r="G12" s="139"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="211"/>
+      <c r="B13" s="147" t="s">
+        <v>650</v>
+      </c>
+      <c r="C13" s="143" t="s">
+        <v>622</v>
+      </c>
+      <c r="D13" s="145"/>
+      <c r="F13" s="148" t="s">
+        <v>617</v>
+      </c>
+      <c r="G13" s="139"/>
+    </row>
+    <row r="14" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="211"/>
+      <c r="B14" s="147" t="s">
+        <v>649</v>
+      </c>
+      <c r="C14" s="143" t="s">
+        <v>622</v>
+      </c>
+      <c r="D14" s="145"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="148" t="s">
+        <v>617</v>
+      </c>
+      <c r="G14" s="139"/>
+    </row>
+    <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="211"/>
+      <c r="B15" s="147" t="s">
+        <v>624</v>
+      </c>
+      <c r="C15" s="143" t="s">
+        <v>622</v>
+      </c>
+      <c r="D15" s="141" t="s">
+        <v>662</v>
+      </c>
+      <c r="G15" s="139"/>
+    </row>
+    <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="211"/>
+      <c r="B16" s="218" t="s">
+        <v>651</v>
+      </c>
+      <c r="C16" s="143" t="s">
+        <v>622</v>
+      </c>
+      <c r="D16" s="150"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="148" t="s">
+        <v>617</v>
+      </c>
+      <c r="G16" s="139"/>
+    </row>
+    <row r="17" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="212"/>
+      <c r="B17" s="147" t="s">
+        <v>652</v>
+      </c>
+      <c r="C17" s="143" t="s">
+        <v>607</v>
+      </c>
+      <c r="D17" s="141" t="s">
+        <v>673</v>
+      </c>
+      <c r="E17" s="157" t="s">
+        <v>665</v>
+      </c>
+      <c r="F17" s="148" t="s">
+        <v>617</v>
+      </c>
+      <c r="G17" s="139"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="210" t="s">
+        <v>527</v>
+      </c>
+      <c r="B18" s="151" t="s">
+        <v>608</v>
+      </c>
+      <c r="C18" s="208" t="s">
         <v>669</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="D18" s="157" t="s">
+        <v>667</v>
+      </c>
+      <c r="F18" s="149"/>
+      <c r="G18" s="139"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="211"/>
+      <c r="B19" s="151" t="s">
         <v>609</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="144" t="s">
-        <v>636</v>
-      </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="142"/>
-    </row>
-    <row r="4" spans="1:9" s="121" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="161"/>
-      <c r="B4" s="224" t="s">
-        <v>682</v>
-      </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="142"/>
-    </row>
-    <row r="5" spans="1:9" s="121" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="161"/>
-      <c r="B5" s="224" t="s">
-        <v>681</v>
-      </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="142"/>
-    </row>
-    <row r="6" spans="1:9" s="121" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="161"/>
-      <c r="B6" s="140" t="s">
-        <v>678</v>
-      </c>
-      <c r="C6" s="141" t="s">
-        <v>679</v>
-      </c>
-      <c r="D6" s="143"/>
-      <c r="E6" s="141" t="s">
-        <v>680</v>
-      </c>
-      <c r="F6" s="143"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="142"/>
-    </row>
-    <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="217"/>
-      <c r="B7" s="140" t="s">
-        <v>630</v>
-      </c>
-      <c r="C7" s="146" t="s">
-        <v>614</v>
-      </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-    </row>
-    <row r="8" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="217"/>
-      <c r="B8" s="149" t="s">
-        <v>634</v>
-      </c>
-      <c r="C8" s="146" t="s">
-        <v>614</v>
-      </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-    </row>
-    <row r="9" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="217"/>
-      <c r="B9" s="149" t="s">
-        <v>676</v>
-      </c>
-      <c r="C9" s="146" t="s">
-        <v>674</v>
-      </c>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147" t="s">
-        <v>677</v>
-      </c>
-      <c r="F9" s="160"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-    </row>
-    <row r="10" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="217"/>
-      <c r="B10" s="149" t="s">
-        <v>673</v>
-      </c>
-      <c r="C10" s="146" t="s">
-        <v>674</v>
-      </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147" t="s">
-        <v>675</v>
-      </c>
-      <c r="F10" s="160"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="217"/>
-      <c r="B11" s="149" t="s">
-        <v>670</v>
-      </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147" t="s">
-        <v>671</v>
-      </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="217"/>
-      <c r="B12" s="150" t="s">
-        <v>663</v>
-      </c>
-      <c r="C12" s="146" t="s">
-        <v>672</v>
-      </c>
-      <c r="D12" s="147" t="s">
-        <v>665</v>
-      </c>
-      <c r="E12" s="147" t="s">
-        <v>660</v>
-      </c>
-      <c r="F12" s="148"/>
-      <c r="G12" s="151" t="s">
-        <v>623</v>
-      </c>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-    </row>
-    <row r="13" spans="1:9" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="217"/>
-      <c r="B13" s="150" t="s">
-        <v>662</v>
-      </c>
-      <c r="C13" s="146" t="s">
-        <v>614</v>
-      </c>
-      <c r="D13" s="147" t="s">
-        <v>661</v>
-      </c>
-      <c r="E13" s="151" t="s">
-        <v>623</v>
-      </c>
-      <c r="F13" s="148"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-    </row>
-    <row r="14" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="217"/>
-      <c r="B14" s="150" t="s">
-        <v>635</v>
-      </c>
-      <c r="C14" s="146" t="s">
-        <v>614</v>
-      </c>
-      <c r="D14" s="147"/>
-      <c r="E14" s="148" t="s">
-        <v>632</v>
-      </c>
-      <c r="F14" s="144" t="s">
-        <v>633</v>
-      </c>
-      <c r="G14" s="151" t="s">
-        <v>623</v>
-      </c>
-      <c r="H14" s="152"/>
-      <c r="I14" s="142"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="217"/>
-      <c r="B15" s="150" t="s">
-        <v>613</v>
-      </c>
-      <c r="C15" s="146" t="s">
-        <v>674</v>
-      </c>
-      <c r="D15" s="147"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="144" t="s">
-        <v>633</v>
-      </c>
-      <c r="H15" s="151" t="s">
-        <v>623</v>
-      </c>
-      <c r="I15" s="142"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="217"/>
-      <c r="B16" s="150" t="s">
-        <v>664</v>
-      </c>
-      <c r="C16" s="146" t="s">
-        <v>631</v>
-      </c>
-      <c r="D16" s="144" t="s">
-        <v>628</v>
-      </c>
-      <c r="E16" s="151" t="s">
-        <v>623</v>
-      </c>
-      <c r="F16" s="153"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="142"/>
-    </row>
-    <row r="17" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="218"/>
-      <c r="B17" s="150" t="s">
-        <v>667</v>
-      </c>
-      <c r="C17" s="146" t="s">
-        <v>609</v>
-      </c>
-      <c r="D17" s="148"/>
-      <c r="E17" s="144" t="s">
-        <v>625</v>
-      </c>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="151" t="s">
-        <v>623</v>
-      </c>
-      <c r="I17" s="142" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="216" t="s">
-        <v>527</v>
-      </c>
-      <c r="B18" s="154" t="s">
-        <v>611</v>
-      </c>
-      <c r="C18" s="214" t="s">
-        <v>615</v>
-      </c>
-      <c r="D18" s="148"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="155" t="s">
-        <v>622</v>
-      </c>
-      <c r="H18" s="152"/>
-      <c r="I18" s="142"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="217"/>
-      <c r="B19" s="154" t="s">
-        <v>612</v>
-      </c>
-      <c r="C19" s="215"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="218"/>
-      <c r="B20" s="156" t="s">
+      <c r="C19" s="209"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="152" t="s">
+        <v>616</v>
+      </c>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="212"/>
+      <c r="B20" s="153" t="s">
         <v>529</v>
       </c>
-      <c r="C20" s="146" t="s">
+      <c r="C20" s="143" t="s">
         <v>526</v>
       </c>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-    </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="124" t="s">
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+    </row>
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="123" t="s">
         <v>525</v>
       </c>
-      <c r="B21" s="157"/>
-      <c r="C21" s="142" t="s">
+      <c r="B21" s="154"/>
+      <c r="C21" s="139" t="s">
         <v>528</v>
       </c>
-      <c r="D21" s="158"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="142"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="133"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C23" s="133"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C24" s="133"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="133"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C26" s="133"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C27" s="133"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="132">
+      <c r="D21" s="145"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="139"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="132"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="132"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="132"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="132"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="132"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="132"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="131">
         <v>820</v>
       </c>
-      <c r="D28" s="136"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C29" s="132">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="131">
         <v>920</v>
       </c>
-      <c r="D29" s="136" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="132">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="131">
         <v>1020</v>
       </c>
-      <c r="D30" s="136"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="132">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="131">
         <v>1120</v>
       </c>
-      <c r="D31" s="137"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C32" s="132">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C32" s="131">
         <v>1220</v>
       </c>
-      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="133"/>
+      <c r="C33" s="132"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="133"/>
+      <c r="C34" s="132"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="133"/>
+      <c r="C35" s="132"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="133"/>
+      <c r="C36" s="132"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="133"/>
+      <c r="C37" s="132"/>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="133"/>
+      <c r="C38" s="132"/>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="133"/>
+      <c r="C39" s="132"/>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="133"/>
+      <c r="C40" s="132"/>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="133"/>
+      <c r="C41" s="132"/>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="133"/>
+      <c r="C42" s="132"/>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="133"/>
+      <c r="C43" s="132"/>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="133"/>
+      <c r="C44" s="132"/>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="133"/>
+      <c r="C45" s="132"/>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="133"/>
+      <c r="C46" s="132"/>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="133"/>
+      <c r="C47" s="132"/>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="133"/>
+      <c r="C48" s="132"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="133"/>
+      <c r="C49" s="132"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="133"/>
+      <c r="C50" s="132"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="133"/>
+      <c r="C51" s="132"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="133"/>
+      <c r="C52" s="132"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="133"/>
+      <c r="C53" s="132"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="133"/>
+      <c r="C54" s="132"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="133"/>
+      <c r="C55" s="132"/>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="133"/>
+      <c r="C56" s="132"/>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="133"/>
+      <c r="C57" s="132"/>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="133"/>
+      <c r="C58" s="132"/>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="133"/>
+      <c r="C59" s="132"/>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="133"/>
+      <c r="C60" s="132"/>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="133"/>
+      <c r="C61" s="132"/>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="133"/>
+      <c r="C62" s="132"/>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="133"/>
+      <c r="C63" s="132"/>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="133"/>
+      <c r="C64" s="132"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="133"/>
+      <c r="C65" s="132"/>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="133"/>
+      <c r="C66" s="132"/>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="133"/>
+      <c r="C67" s="132"/>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="133"/>
+      <c r="C68" s="132"/>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="133"/>
+      <c r="C69" s="132"/>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="133"/>
+      <c r="C70" s="132"/>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="133"/>
+      <c r="C71" s="132"/>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="133"/>
+      <c r="C72" s="132"/>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="133"/>
+      <c r="C73" s="132"/>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="133"/>
+      <c r="C74" s="132"/>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="133"/>
+      <c r="C75" s="132"/>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="133"/>
+      <c r="C76" s="132"/>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="133"/>
+      <c r="C77" s="132"/>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="133"/>
+      <c r="C78" s="132"/>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="133"/>
+      <c r="C79" s="132"/>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="133"/>
+      <c r="C80" s="132"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="133"/>
+      <c r="C81" s="132"/>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="133"/>
+      <c r="C82" s="132"/>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="133"/>
+      <c r="C83" s="132"/>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="133"/>
+      <c r="C84" s="132"/>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="133"/>
+      <c r="C85" s="132"/>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="133"/>
+      <c r="C86" s="132"/>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="133"/>
+      <c r="C87" s="132"/>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="133"/>
+      <c r="C88" s="132"/>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="133"/>
+      <c r="C89" s="132"/>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="133"/>
+      <c r="C90" s="132"/>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="133"/>
+      <c r="C91" s="132"/>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="133"/>
+      <c r="C92" s="132"/>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="133"/>
+      <c r="C93" s="132"/>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="133"/>
+      <c r="C94" s="132"/>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="133"/>
+      <c r="C95" s="132"/>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="133"/>
+      <c r="C96" s="132"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="133"/>
+      <c r="C97" s="132"/>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="133"/>
+      <c r="C98" s="132"/>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="133"/>
+      <c r="C99" s="132"/>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="133"/>
+      <c r="C100" s="132"/>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="133"/>
+      <c r="C101" s="132"/>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="133"/>
+      <c r="C102" s="132"/>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C103" s="133"/>
+      <c r="C103" s="132"/>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C104" s="133"/>
+      <c r="C104" s="132"/>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C105" s="133"/>
+      <c r="C105" s="132"/>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C106" s="133"/>
+      <c r="C106" s="132"/>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C107" s="133"/>
+      <c r="C107" s="132"/>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C108" s="133"/>
+      <c r="C108" s="132"/>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C109" s="133"/>
+      <c r="C109" s="132"/>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C110" s="133"/>
+      <c r="C110" s="132"/>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C111" s="133"/>
+      <c r="C111" s="132"/>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C112" s="133"/>
+      <c r="C112" s="132"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C113" s="133"/>
+      <c r="C113" s="132"/>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C114" s="133"/>
+      <c r="C114" s="132"/>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C115" s="133"/>
+      <c r="C115" s="132"/>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C116" s="133"/>
+      <c r="C116" s="132"/>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C117" s="133"/>
+      <c r="C117" s="132"/>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C118" s="133"/>
+      <c r="C118" s="132"/>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C119" s="133"/>
+      <c r="C119" s="132"/>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C120" s="133"/>
+      <c r="C120" s="132"/>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C121" s="133"/>
+      <c r="C121" s="132"/>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C122" s="133"/>
+      <c r="C122" s="132"/>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C123" s="133"/>
+      <c r="C123" s="132"/>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C124" s="133"/>
+      <c r="C124" s="132"/>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C125" s="133"/>
+      <c r="C125" s="132"/>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C126" s="133"/>
+      <c r="C126" s="132"/>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C127" s="133"/>
+      <c r="C127" s="132"/>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C128" s="133"/>
+      <c r="C128" s="132"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C129" s="133"/>
+      <c r="C129" s="132"/>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C130" s="133"/>
+      <c r="C130" s="132"/>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C131" s="133"/>
+      <c r="C131" s="132"/>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C132" s="133"/>
+      <c r="C132" s="132"/>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C133" s="133"/>
+      <c r="C133" s="132"/>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C134" s="133"/>
+      <c r="C134" s="132"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C135" s="133"/>
+      <c r="C135" s="132"/>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C136" s="133"/>
+      <c r="C136" s="132"/>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C137" s="133"/>
+      <c r="C137" s="132"/>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C138" s="133"/>
+      <c r="C138" s="132"/>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C139" s="133"/>
+      <c r="C139" s="132"/>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C140" s="133"/>
+      <c r="C140" s="132"/>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C141" s="133"/>
+      <c r="C141" s="132"/>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C142" s="133"/>
+      <c r="C142" s="132"/>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C143" s="133"/>
+      <c r="C143" s="132"/>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C144" s="133"/>
+      <c r="C144" s="132"/>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C145" s="133"/>
+      <c r="C145" s="132"/>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C146" s="133"/>
+      <c r="C146" s="132"/>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C147" s="133"/>
+      <c r="C147" s="132"/>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C148" s="133"/>
+      <c r="C148" s="132"/>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C149" s="133"/>
+      <c r="C149" s="132"/>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C150" s="133"/>
+      <c r="C150" s="132"/>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C151" s="133"/>
+      <c r="C151" s="132"/>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C152" s="133"/>
+      <c r="C152" s="132"/>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C153" s="133"/>
+      <c r="C153" s="132"/>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C154" s="133"/>
+      <c r="C154" s="132"/>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C155" s="133"/>
+      <c r="C155" s="132"/>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C156" s="133"/>
+      <c r="C156" s="132"/>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C157" s="133"/>
+      <c r="C157" s="132"/>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C158" s="133"/>
+      <c r="C158" s="132"/>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C159" s="133"/>
+      <c r="C159" s="132"/>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C160" s="133"/>
+      <c r="C160" s="132"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C161" s="133"/>
+      <c r="C161" s="132"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C162" s="133"/>
+      <c r="C162" s="132"/>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C163" s="133"/>
+      <c r="C163" s="132"/>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C164" s="133"/>
+      <c r="C164" s="132"/>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C165" s="133"/>
+      <c r="C165" s="132"/>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C166" s="133"/>
+      <c r="C166" s="132"/>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C167" s="133"/>
+      <c r="C167" s="132"/>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C168" s="133"/>
+      <c r="C168" s="132"/>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C169" s="133"/>
+      <c r="C169" s="132"/>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C170" s="133"/>
+      <c r="C170" s="132"/>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C171" s="133"/>
+      <c r="C171" s="132"/>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C172" s="133"/>
+      <c r="C172" s="132"/>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C173" s="133"/>
+      <c r="C173" s="132"/>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C174" s="133"/>
+      <c r="C174" s="132"/>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C175" s="133"/>
+      <c r="C175" s="132"/>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C176" s="133"/>
+      <c r="C176" s="132"/>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C177" s="133"/>
+      <c r="C177" s="132"/>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C178" s="133"/>
+      <c r="C178" s="132"/>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C179" s="133"/>
+      <c r="C179" s="132"/>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C180" s="133"/>
+      <c r="C180" s="132"/>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C181" s="133"/>
+      <c r="C181" s="132"/>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C182" s="133"/>
+      <c r="C182" s="132"/>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C183" s="133"/>
+      <c r="C183" s="132"/>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C184" s="133"/>
+      <c r="C184" s="132"/>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C185" s="133"/>
+      <c r="C185" s="132"/>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C186" s="133"/>
+      <c r="C186" s="132"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C187" s="133"/>
+      <c r="C187" s="132"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C188" s="133"/>
+      <c r="C188" s="132"/>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C189" s="133"/>
+      <c r="C189" s="132"/>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C190" s="133"/>
+      <c r="C190" s="132"/>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C191" s="133"/>
+      <c r="C191" s="132"/>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C192" s="133"/>
+      <c r="C192" s="132"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C193" s="133"/>
+      <c r="C193" s="132"/>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C194" s="133"/>
+      <c r="C194" s="132"/>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C195" s="133"/>
+      <c r="C195" s="132"/>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C196" s="133"/>
+      <c r="C196" s="132"/>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C197" s="133"/>
+      <c r="C197" s="132"/>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C198" s="133"/>
+      <c r="C198" s="132"/>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C199" s="133"/>
+      <c r="C199" s="132"/>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C200" s="133"/>
+      <c r="C200" s="132"/>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C201" s="133"/>
+      <c r="C201" s="132"/>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C202" s="133"/>
+      <c r="C202" s="132"/>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C203" s="133"/>
+      <c r="C203" s="132"/>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C204" s="133"/>
+      <c r="C204" s="132"/>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C205" s="133"/>
+      <c r="C205" s="132"/>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C206" s="133"/>
+      <c r="C206" s="132"/>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C207" s="133"/>
+      <c r="C207" s="132"/>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C208" s="133"/>
+      <c r="C208" s="132"/>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C209" s="133"/>
+      <c r="C209" s="132"/>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C210" s="133"/>
+      <c r="C210" s="132"/>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C211" s="133"/>
+      <c r="C211" s="132"/>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C212" s="133"/>
+      <c r="C212" s="132"/>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C213" s="133"/>
+      <c r="C213" s="132"/>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C214" s="133"/>
+      <c r="C214" s="132"/>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C215" s="133"/>
+      <c r="C215" s="132"/>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C216" s="133"/>
+      <c r="C216" s="132"/>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C217" s="133"/>
+      <c r="C217" s="132"/>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C218" s="133"/>
+      <c r="C218" s="132"/>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C219" s="133"/>
+      <c r="C219" s="132"/>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C220" s="133"/>
+      <c r="C220" s="132"/>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C221" s="133"/>
+      <c r="C221" s="132"/>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C222" s="133"/>
+      <c r="C222" s="132"/>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C223" s="133"/>
+      <c r="C223" s="132"/>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C224" s="133"/>
+      <c r="C224" s="132"/>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C225" s="133"/>
+      <c r="C225" s="132"/>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C226" s="133"/>
+      <c r="C226" s="132"/>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C227" s="133"/>
+      <c r="C227" s="132"/>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C228" s="133"/>
+      <c r="C228" s="132"/>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C229" s="133"/>
+      <c r="C229" s="132"/>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C230" s="133"/>
+      <c r="C230" s="132"/>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C231" s="133"/>
+      <c r="C231" s="132"/>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C232" s="133"/>
+      <c r="C232" s="132"/>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C233" s="133"/>
+      <c r="C233" s="132"/>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C234" s="133"/>
+      <c r="C234" s="132"/>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C235" s="133"/>
+      <c r="C235" s="132"/>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C236" s="133"/>
+      <c r="C236" s="132"/>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C237" s="133"/>
+      <c r="C237" s="132"/>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C238" s="133"/>
+      <c r="C238" s="132"/>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C239" s="133"/>
+      <c r="C239" s="132"/>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C240" s="133"/>
+      <c r="C240" s="132"/>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C241" s="133"/>
+      <c r="C241" s="132"/>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C242" s="133"/>
+      <c r="C242" s="132"/>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C243" s="133"/>
+      <c r="C243" s="132"/>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C244" s="133"/>
+      <c r="C244" s="132"/>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C245" s="133"/>
+      <c r="C245" s="132"/>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C246" s="133"/>
+      <c r="C246" s="132"/>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C247" s="133"/>
+      <c r="C247" s="132"/>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C248" s="133"/>
+      <c r="C248" s="132"/>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C249" s="133"/>
+      <c r="C249" s="132"/>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C250" s="133"/>
+      <c r="C250" s="132"/>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C251" s="133"/>
+      <c r="C251" s="132"/>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C252" s="133"/>
+      <c r="C252" s="132"/>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C253" s="133"/>
+      <c r="C253" s="132"/>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C254" s="133"/>
+      <c r="C254" s="132"/>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C255" s="133"/>
+      <c r="C255" s="132"/>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C256" s="133"/>
+      <c r="C256" s="132"/>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C257" s="133"/>
+      <c r="C257" s="132"/>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C258" s="133"/>
+      <c r="C258" s="132"/>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C259" s="133"/>
+      <c r="C259" s="132"/>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C260" s="133"/>
+      <c r="C260" s="132"/>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C261" s="133"/>
+      <c r="C261" s="132"/>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C262" s="133"/>
+      <c r="C262" s="132"/>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C263" s="133"/>
+      <c r="C263" s="132"/>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C264" s="133"/>
+      <c r="C264" s="132"/>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C265" s="133"/>
+      <c r="C265" s="132"/>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C266" s="133"/>
+      <c r="C266" s="132"/>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C267" s="133"/>
+      <c r="C267" s="132"/>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C268" s="133"/>
+      <c r="C268" s="132"/>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C269" s="133"/>
+      <c r="C269" s="132"/>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C270" s="133"/>
+      <c r="C270" s="132"/>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C271" s="133"/>
+      <c r="C271" s="132"/>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C272" s="133"/>
+      <c r="C272" s="132"/>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C273" s="133"/>
+      <c r="C273" s="132"/>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C274" s="133"/>
+      <c r="C274" s="132"/>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C275" s="133"/>
+      <c r="C275" s="132"/>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C276" s="133"/>
+      <c r="C276" s="132"/>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C277" s="133"/>
+      <c r="C277" s="132"/>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C278" s="133"/>
+      <c r="C278" s="132"/>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C279" s="133"/>
+      <c r="C279" s="132"/>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C280" s="133"/>
+      <c r="C280" s="132"/>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C281" s="133"/>
+      <c r="C281" s="132"/>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C282" s="133"/>
+      <c r="C282" s="132"/>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C283" s="133"/>
+      <c r="C283" s="132"/>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C284" s="133"/>
+      <c r="C284" s="132"/>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C285" s="133"/>
+      <c r="C285" s="132"/>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C286" s="133"/>
+      <c r="C286" s="132"/>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C287" s="133"/>
+      <c r="C287" s="132"/>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C288" s="133"/>
+      <c r="C288" s="132"/>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C289" s="133"/>
+      <c r="C289" s="132"/>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C290" s="133"/>
+      <c r="C290" s="132"/>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C291" s="133"/>
+      <c r="C291" s="132"/>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C292" s="133"/>
+      <c r="C292" s="132"/>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C293" s="133"/>
+      <c r="C293" s="132"/>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C294" s="133"/>
+      <c r="C294" s="132"/>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C295" s="133"/>
+      <c r="C295" s="132"/>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C296" s="133"/>
+      <c r="C296" s="132"/>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C297" s="133"/>
+      <c r="C297" s="132"/>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C298" s="133"/>
+      <c r="C298" s="132"/>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C299" s="133"/>
+      <c r="C299" s="132"/>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C300" s="133"/>
+      <c r="C300" s="132"/>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C301" s="133"/>
+      <c r="C301" s="132"/>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C302" s="133"/>
+      <c r="C302" s="132"/>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C303" s="133"/>
+      <c r="C303" s="132"/>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C304" s="133"/>
+      <c r="C304" s="132"/>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C305" s="133"/>
+      <c r="C305" s="132"/>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C306" s="133"/>
+      <c r="C306" s="132"/>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C307" s="133"/>
+      <c r="C307" s="132"/>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C308" s="133"/>
+      <c r="C308" s="132"/>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C309" s="133"/>
+      <c r="C309" s="132"/>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C310" s="133"/>
+      <c r="C310" s="132"/>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C311" s="133"/>
+      <c r="C311" s="132"/>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C312" s="133"/>
+      <c r="C312" s="132"/>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C313" s="133"/>
+      <c r="C313" s="132"/>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C314" s="133"/>
+      <c r="C314" s="132"/>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C315" s="133"/>
+      <c r="C315" s="132"/>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C316" s="133"/>
+      <c r="C316" s="132"/>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C317" s="133"/>
+      <c r="C317" s="132"/>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C318" s="133"/>
+      <c r="C318" s="132"/>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C319" s="133"/>
+      <c r="C319" s="132"/>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C320" s="133"/>
+      <c r="C320" s="132"/>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C321" s="133"/>
+      <c r="C321" s="132"/>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C322" s="133"/>
+      <c r="C322" s="132"/>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C323" s="133"/>
+      <c r="C323" s="132"/>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C324" s="133"/>
+      <c r="C324" s="132"/>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C325" s="133"/>
+      <c r="C325" s="132"/>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C326" s="133"/>
+      <c r="C326" s="132"/>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C327" s="133"/>
+      <c r="C327" s="132"/>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C328" s="133"/>
+      <c r="C328" s="132"/>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C329" s="133"/>
+      <c r="C329" s="132"/>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C330" s="133"/>
+      <c r="C330" s="132"/>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C331" s="133"/>
+      <c r="C331" s="132"/>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C332" s="133"/>
+      <c r="C332" s="132"/>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C333" s="133"/>
+      <c r="C333" s="132"/>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C334" s="133"/>
+      <c r="C334" s="132"/>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C335" s="133"/>
+      <c r="C335" s="132"/>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C336" s="133"/>
+      <c r="C336" s="132"/>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C337" s="133"/>
+      <c r="C337" s="132"/>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C338" s="133"/>
+      <c r="C338" s="132"/>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C339" s="133"/>
+      <c r="C339" s="132"/>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C340" s="133"/>
+      <c r="C340" s="132"/>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C341" s="133"/>
+      <c r="C341" s="132"/>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C342" s="133"/>
+      <c r="C342" s="132"/>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C343" s="133"/>
+      <c r="C343" s="132"/>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C344" s="133"/>
+      <c r="C344" s="132"/>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C345" s="133"/>
+      <c r="C345" s="132"/>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C346" s="133"/>
+      <c r="C346" s="132"/>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C347" s="133"/>
+      <c r="C347" s="132"/>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C348" s="133"/>
+      <c r="C348" s="132"/>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C349" s="133"/>
+      <c r="C349" s="132"/>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C350" s="133"/>
+      <c r="C350" s="132"/>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C351" s="133"/>
+      <c r="C351" s="132"/>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C352" s="133"/>
+      <c r="C352" s="132"/>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C353" s="133"/>
+      <c r="C353" s="132"/>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C354" s="133"/>
+      <c r="C354" s="132"/>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C355" s="133"/>
+      <c r="C355" s="132"/>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C356" s="133"/>
+      <c r="C356" s="132"/>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C357" s="133"/>
+      <c r="C357" s="132"/>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C358" s="133"/>
+      <c r="C358" s="132"/>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C359" s="133"/>
+      <c r="C359" s="132"/>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C360" s="133"/>
+      <c r="C360" s="132"/>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C361" s="133"/>
+      <c r="C361" s="132"/>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C362" s="133"/>
+      <c r="C362" s="132"/>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C363" s="133"/>
+      <c r="C363" s="132"/>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C364" s="133"/>
+      <c r="C364" s="132"/>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C365" s="133"/>
+      <c r="C365" s="132"/>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C366" s="133"/>
+      <c r="C366" s="132"/>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C367" s="133"/>
+      <c r="C367" s="132"/>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C368" s="133"/>
+      <c r="C368" s="132"/>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C369" s="133"/>
+      <c r="C369" s="132"/>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C370" s="133"/>
+      <c r="C370" s="132"/>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C371" s="133"/>
+      <c r="C371" s="132"/>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C372" s="133"/>
+      <c r="C372" s="132"/>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C373" s="133"/>
+      <c r="C373" s="132"/>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C374" s="133"/>
+      <c r="C374" s="132"/>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C375" s="133"/>
+      <c r="C375" s="132"/>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C376" s="133"/>
+      <c r="C376" s="132"/>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C377" s="133"/>
+      <c r="C377" s="132"/>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C378" s="133"/>
+      <c r="C378" s="132"/>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C379" s="133"/>
+      <c r="C379" s="132"/>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C380" s="133"/>
+      <c r="C380" s="132"/>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C381" s="133"/>
+      <c r="C381" s="132"/>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C382" s="133"/>
+      <c r="C382" s="132"/>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C383" s="133"/>
+      <c r="C383" s="132"/>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C384" s="133"/>
+      <c r="C384" s="132"/>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C385" s="133"/>
+      <c r="C385" s="132"/>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C386" s="133"/>
+      <c r="C386" s="132"/>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C387" s="133"/>
+      <c r="C387" s="132"/>
     </row>
     <row r="388" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C388" s="133"/>
+      <c r="C388" s="132"/>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C389" s="133"/>
+      <c r="C389" s="132"/>
     </row>
     <row r="390" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C390" s="133"/>
+      <c r="C390" s="132"/>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C391" s="133"/>
+      <c r="C391" s="132"/>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C392" s="133"/>
+      <c r="C392" s="132"/>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C393" s="133"/>
+      <c r="C393" s="132"/>
     </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C394" s="133"/>
+      <c r="C394" s="132"/>
     </row>
     <row r="395" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C395" s="133"/>
+      <c r="C395" s="132"/>
     </row>
     <row r="396" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C396" s="133"/>
+      <c r="C396" s="132"/>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C397" s="133"/>
+      <c r="C397" s="132"/>
     </row>
     <row r="398" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C398" s="133"/>
+      <c r="C398" s="132"/>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C399" s="133"/>
+      <c r="C399" s="132"/>
     </row>
     <row r="400" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C400" s="133"/>
+      <c r="C400" s="132"/>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C401" s="133"/>
+      <c r="C401" s="132"/>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C402" s="133"/>
+      <c r="C402" s="132"/>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C403" s="133"/>
+      <c r="C403" s="132"/>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C404" s="133"/>
+      <c r="C404" s="132"/>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C405" s="133"/>
+      <c r="C405" s="132"/>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C406" s="133"/>
+      <c r="C406" s="132"/>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C407" s="133"/>
+      <c r="C407" s="132"/>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C408" s="133"/>
+      <c r="C408" s="132"/>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C409" s="133"/>
+      <c r="C409" s="132"/>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C410" s="133"/>
+      <c r="C410" s="132"/>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C411" s="133"/>
+      <c r="C411" s="132"/>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C412" s="133"/>
+      <c r="C412" s="132"/>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C413" s="133"/>
+      <c r="C413" s="132"/>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C414" s="133"/>
+      <c r="C414" s="132"/>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C415" s="133"/>
+      <c r="C415" s="132"/>
     </row>
     <row r="416" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C416" s="133"/>
+      <c r="C416" s="132"/>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C417" s="133"/>
+      <c r="C417" s="132"/>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C418" s="133"/>
+      <c r="C418" s="132"/>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C419" s="133"/>
+      <c r="C419" s="132"/>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C420" s="133"/>
+      <c r="C420" s="132"/>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C421" s="133"/>
+      <c r="C421" s="132"/>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C422" s="133"/>
+      <c r="C422" s="132"/>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C423" s="133"/>
+      <c r="C423" s="132"/>
     </row>
     <row r="424" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C424" s="133"/>
+      <c r="C424" s="132"/>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C425" s="133"/>
+      <c r="C425" s="132"/>
     </row>
     <row r="426" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C426" s="133"/>
+      <c r="C426" s="132"/>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C427" s="133"/>
+      <c r="C427" s="132"/>
     </row>
     <row r="428" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C428" s="133"/>
+      <c r="C428" s="132"/>
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C429" s="133"/>
+      <c r="C429" s="132"/>
     </row>
     <row r="430" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C430" s="133"/>
+      <c r="C430" s="132"/>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C431" s="133"/>
+      <c r="C431" s="132"/>
     </row>
     <row r="432" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C432" s="133"/>
+      <c r="C432" s="132"/>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C433" s="133"/>
+      <c r="C433" s="132"/>
     </row>
     <row r="434" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C434" s="133"/>
+      <c r="C434" s="132"/>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C435" s="133"/>
+      <c r="C435" s="132"/>
     </row>
     <row r="436" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C436" s="133"/>
+      <c r="C436" s="132"/>
     </row>
     <row r="437" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C437" s="133"/>
+      <c r="C437" s="132"/>
     </row>
     <row r="438" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C438" s="133"/>
+      <c r="C438" s="132"/>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C439" s="133"/>
+      <c r="C439" s="132"/>
     </row>
     <row r="440" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C440" s="133"/>
+      <c r="C440" s="132"/>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C441" s="133"/>
+      <c r="C441" s="132"/>
     </row>
     <row r="442" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C442" s="133"/>
+      <c r="C442" s="132"/>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C443" s="133"/>
+      <c r="C443" s="132"/>
     </row>
     <row r="444" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C444" s="133"/>
+      <c r="C444" s="132"/>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C445" s="133"/>
+      <c r="C445" s="132"/>
     </row>
     <row r="446" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C446" s="133"/>
+      <c r="C446" s="132"/>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C447" s="133"/>
+      <c r="C447" s="132"/>
     </row>
     <row r="448" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C448" s="133"/>
+      <c r="C448" s="132"/>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C449" s="133"/>
+      <c r="C449" s="132"/>
     </row>
     <row r="450" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C450" s="133"/>
+      <c r="C450" s="132"/>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C451" s="133"/>
+      <c r="C451" s="132"/>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C452" s="133"/>
+      <c r="C452" s="132"/>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C453" s="133"/>
+      <c r="C453" s="132"/>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C454" s="133"/>
+      <c r="C454" s="132"/>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C455" s="133"/>
+      <c r="C455" s="132"/>
     </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C456" s="133"/>
+      <c r="C456" s="132"/>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C457" s="133"/>
+      <c r="C457" s="132"/>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C458" s="133"/>
+      <c r="C458" s="132"/>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C459" s="133"/>
+      <c r="C459" s="132"/>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C460" s="133"/>
+      <c r="C460" s="132"/>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C461" s="133"/>
+      <c r="C461" s="132"/>
     </row>
     <row r="462" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C462" s="133"/>
+      <c r="C462" s="132"/>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C463" s="133"/>
+      <c r="C463" s="132"/>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C464" s="133"/>
+      <c r="C464" s="132"/>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C465" s="133"/>
+      <c r="C465" s="132"/>
     </row>
     <row r="466" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C466" s="133"/>
+      <c r="C466" s="132"/>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C467" s="133"/>
+      <c r="C467" s="132"/>
     </row>
     <row r="468" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C468" s="133"/>
+      <c r="C468" s="132"/>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C469" s="133"/>
+      <c r="C469" s="132"/>
     </row>
     <row r="470" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C470" s="133"/>
+      <c r="C470" s="132"/>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C471" s="133"/>
+      <c r="C471" s="132"/>
     </row>
     <row r="472" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C472" s="133"/>
+      <c r="C472" s="132"/>
     </row>
     <row r="473" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C473" s="133"/>
+      <c r="C473" s="132"/>
     </row>
     <row r="474" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C474" s="133"/>
+      <c r="C474" s="132"/>
     </row>
     <row r="475" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C475" s="133"/>
+      <c r="C475" s="132"/>
     </row>
     <row r="476" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C476" s="133"/>
+      <c r="C476" s="132"/>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C477" s="133"/>
+      <c r="C477" s="132"/>
     </row>
     <row r="478" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C478" s="133"/>
+      <c r="C478" s="132"/>
     </row>
     <row r="479" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C479" s="133"/>
+      <c r="C479" s="132"/>
     </row>
     <row r="480" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C480" s="133"/>
+      <c r="C480" s="132"/>
     </row>
     <row r="481" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C481" s="133"/>
+      <c r="C481" s="132"/>
     </row>
     <row r="482" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C482" s="133"/>
+      <c r="C482" s="132"/>
     </row>
     <row r="483" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C483" s="133"/>
+      <c r="C483" s="132"/>
     </row>
     <row r="484" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C484" s="133"/>
+      <c r="C484" s="132"/>
     </row>
     <row r="485" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C485" s="133"/>
+      <c r="C485" s="132"/>
     </row>
     <row r="486" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C486" s="133"/>
+      <c r="C486" s="132"/>
     </row>
     <row r="487" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C487" s="133"/>
+      <c r="C487" s="132"/>
     </row>
     <row r="488" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C488" s="133"/>
+      <c r="C488" s="132"/>
     </row>
     <row r="489" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C489" s="133"/>
+      <c r="C489" s="132"/>
     </row>
     <row r="490" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C490" s="133"/>
+      <c r="C490" s="132"/>
     </row>
     <row r="491" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C491" s="133"/>
+      <c r="C491" s="132"/>
     </row>
     <row r="492" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C492" s="133"/>
+      <c r="C492" s="132"/>
     </row>
     <row r="493" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C493" s="133"/>
+      <c r="C493" s="132"/>
     </row>
     <row r="494" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C494" s="133"/>
+      <c r="C494" s="132"/>
     </row>
     <row r="495" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C495" s="133"/>
+      <c r="C495" s="132"/>
     </row>
     <row r="496" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C496" s="133"/>
+      <c r="C496" s="132"/>
     </row>
     <row r="497" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C497" s="133"/>
+      <c r="C497" s="132"/>
     </row>
     <row r="498" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C498" s="133"/>
+      <c r="C498" s="132"/>
     </row>
     <row r="499" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C499" s="133"/>
+      <c r="C499" s="132"/>
     </row>
     <row r="500" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C500" s="133"/>
+      <c r="C500" s="132"/>
     </row>
     <row r="501" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C501" s="133"/>
+      <c r="C501" s="132"/>
     </row>
     <row r="502" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C502" s="133"/>
+      <c r="C502" s="132"/>
     </row>
     <row r="503" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C503" s="133"/>
+      <c r="C503" s="132"/>
     </row>
     <row r="504" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C504" s="133"/>
+      <c r="C504" s="132"/>
     </row>
     <row r="505" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C505" s="133"/>
+      <c r="C505" s="132"/>
     </row>
     <row r="506" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C506" s="133"/>
+      <c r="C506" s="132"/>
     </row>
     <row r="507" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C507" s="133"/>
+      <c r="C507" s="132"/>
     </row>
     <row r="508" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C508" s="133"/>
+      <c r="C508" s="132"/>
     </row>
     <row r="509" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C509" s="133"/>
+      <c r="C509" s="132"/>
     </row>
     <row r="510" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C510" s="133"/>
+      <c r="C510" s="132"/>
     </row>
     <row r="511" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C511" s="133"/>
+      <c r="C511" s="132"/>
     </row>
     <row r="512" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C512" s="133"/>
+      <c r="C512" s="132"/>
     </row>
     <row r="513" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C513" s="133"/>
+      <c r="C513" s="132"/>
     </row>
     <row r="514" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C514" s="133"/>
+      <c r="C514" s="132"/>
     </row>
     <row r="515" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C515" s="133"/>
+      <c r="C515" s="132"/>
     </row>
     <row r="516" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C516" s="133"/>
+      <c r="C516" s="132"/>
     </row>
     <row r="517" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C517" s="133"/>
+      <c r="C517" s="132"/>
     </row>
     <row r="518" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C518" s="133"/>
+      <c r="C518" s="132"/>
     </row>
     <row r="519" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C519" s="133"/>
+      <c r="C519" s="132"/>
     </row>
     <row r="520" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C520" s="133"/>
+      <c r="C520" s="132"/>
     </row>
     <row r="521" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C521" s="133"/>
+      <c r="C521" s="132"/>
     </row>
     <row r="522" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C522" s="133"/>
+      <c r="C522" s="132"/>
     </row>
     <row r="523" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C523" s="133"/>
+      <c r="C523" s="132"/>
     </row>
     <row r="524" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C524" s="133"/>
+      <c r="C524" s="132"/>
     </row>
     <row r="525" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C525" s="133"/>
+      <c r="C525" s="132"/>
     </row>
     <row r="526" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C526" s="133"/>
+      <c r="C526" s="132"/>
     </row>
     <row r="527" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C527" s="133"/>
+      <c r="C527" s="132"/>
     </row>
     <row r="528" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C528" s="133"/>
+      <c r="C528" s="132"/>
     </row>
     <row r="529" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C529" s="133"/>
+      <c r="C529" s="132"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="3">
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A2:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10180,164 +10114,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="216" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216" t="s">
+        <v>629</v>
+      </c>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+    </row>
+    <row r="2" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="135" t="s">
+        <v>634</v>
+      </c>
+      <c r="B2" s="135" t="s">
+        <v>633</v>
+      </c>
+      <c r="C2" s="136" t="s">
+        <v>631</v>
+      </c>
+      <c r="D2" s="135" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2" s="135" t="s">
+        <v>627</v>
+      </c>
+      <c r="F2" s="135" t="s">
+        <v>628</v>
+      </c>
+      <c r="G2" s="135" t="s">
+        <v>307</v>
+      </c>
+      <c r="H2" s="135" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="181" t="s">
+        <v>637</v>
+      </c>
+      <c r="B3" s="134" t="s">
+        <v>635</v>
+      </c>
+      <c r="C3" s="213" t="s">
+        <v>638</v>
+      </c>
+      <c r="D3" s="134" t="s">
+        <v>639</v>
+      </c>
+      <c r="E3" s="213" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" s="213" t="s">
+        <v>647</v>
+      </c>
+      <c r="G3" s="213" t="s">
+        <v>646</v>
+      </c>
+      <c r="H3" s="165" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="65.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="183"/>
+      <c r="B4" s="134" t="s">
+        <v>636</v>
+      </c>
+      <c r="C4" s="215"/>
+      <c r="D4" s="134" t="s">
+        <v>640</v>
+      </c>
+      <c r="E4" s="217"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="166"/>
+    </row>
+    <row r="5" spans="1:8" ht="44.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="134" t="s">
+        <v>610</v>
+      </c>
+      <c r="B5" s="134" t="s">
         <v>643</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222" t="s">
-        <v>640</v>
-      </c>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-    </row>
-    <row r="2" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="138" t="s">
+      <c r="C5" s="134" t="s">
+        <v>642</v>
+      </c>
+      <c r="D5" s="134" t="s">
+        <v>644</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="B2" s="138" t="s">
-        <v>644</v>
-      </c>
-      <c r="C2" s="139" t="s">
-        <v>642</v>
-      </c>
-      <c r="D2" s="138" t="s">
-        <v>637</v>
-      </c>
-      <c r="E2" s="138" t="s">
-        <v>638</v>
-      </c>
-      <c r="F2" s="138" t="s">
-        <v>639</v>
-      </c>
-      <c r="G2" s="138" t="s">
-        <v>307</v>
-      </c>
-      <c r="H2" s="138" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="185" t="s">
-        <v>648</v>
-      </c>
-      <c r="B3" s="135" t="s">
-        <v>646</v>
-      </c>
-      <c r="C3" s="219" t="s">
-        <v>649</v>
-      </c>
-      <c r="D3" s="135" t="s">
-        <v>650</v>
-      </c>
-      <c r="E3" s="219" t="s">
-        <v>652</v>
-      </c>
-      <c r="F3" s="219" t="s">
-        <v>658</v>
-      </c>
-      <c r="G3" s="219" t="s">
-        <v>657</v>
-      </c>
-      <c r="H3" s="169" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="65.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="187"/>
-      <c r="B4" s="135" t="s">
-        <v>647</v>
-      </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="135" t="s">
-        <v>651</v>
-      </c>
-      <c r="E4" s="223"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="170"/>
-    </row>
-    <row r="5" spans="1:8" ht="44.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="135" t="s">
-        <v>613</v>
-      </c>
-      <c r="B5" s="135" t="s">
-        <v>654</v>
-      </c>
-      <c r="C5" s="135" t="s">
-        <v>653</v>
-      </c>
-      <c r="D5" s="135" t="s">
-        <v>655</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="171"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="167"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="135"/>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
+      <c r="A6" s="134"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="135"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="135"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="135"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="135"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="135"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10434,7 +10368,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="165" t="s">
         <v>271</v>
       </c>
       <c r="B18" s="88" t="s">
@@ -10451,7 +10385,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="170"/>
+      <c r="A19" s="166"/>
       <c r="B19" s="88" t="s">
         <v>353</v>
       </c>
@@ -10466,7 +10400,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="170"/>
+      <c r="A20" s="166"/>
       <c r="B20" s="65" t="s">
         <v>354</v>
       </c>
@@ -10479,7 +10413,7 @@
       <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="170"/>
+      <c r="A21" s="166"/>
       <c r="B21" s="25" t="s">
         <v>280</v>
       </c>
@@ -10492,7 +10426,7 @@
       <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="170"/>
+      <c r="A22" s="166"/>
       <c r="B22" s="25" t="s">
         <v>323</v>
       </c>
@@ -10507,7 +10441,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="171"/>
+      <c r="A23" s="167"/>
       <c r="B23" s="25" t="s">
         <v>349</v>
       </c>
@@ -10520,7 +10454,7 @@
       <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="172" t="s">
+      <c r="A24" s="168" t="s">
         <v>313</v>
       </c>
       <c r="B24" s="65" t="s">
@@ -10535,7 +10469,7 @@
       <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="172"/>
+      <c r="A25" s="168"/>
       <c r="B25" s="67" t="s">
         <v>294</v>
       </c>
@@ -10548,7 +10482,7 @@
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="172"/>
+      <c r="A26" s="168"/>
       <c r="B26" s="86" t="s">
         <v>342</v>
       </c>
@@ -10559,7 +10493,7 @@
       <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="172"/>
+      <c r="A27" s="168"/>
       <c r="B27" s="69" t="s">
         <v>351</v>
       </c>
@@ -10568,7 +10502,7 @@
       <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="172"/>
+      <c r="A28" s="168"/>
       <c r="B28" s="87" t="s">
         <v>328</v>
       </c>
@@ -10581,7 +10515,7 @@
       <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="172"/>
+      <c r="A29" s="168"/>
       <c r="B29" s="85" t="s">
         <v>352</v>
       </c>
@@ -10590,7 +10524,7 @@
       <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="172"/>
+      <c r="A30" s="168"/>
       <c r="B30" s="25" t="s">
         <v>285</v>
       </c>
@@ -10603,7 +10537,7 @@
       <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="172"/>
+      <c r="A31" s="168"/>
       <c r="B31" s="25" t="s">
         <v>286</v>
       </c>
@@ -10616,7 +10550,7 @@
       <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="172"/>
+      <c r="A32" s="168"/>
       <c r="B32" s="25" t="s">
         <v>287</v>
       </c>
@@ -10629,7 +10563,7 @@
       <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="172"/>
+      <c r="A33" s="168"/>
       <c r="B33" s="87" t="s">
         <v>288</v>
       </c>
@@ -10642,7 +10576,7 @@
       <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="172"/>
+      <c r="A34" s="168"/>
       <c r="B34" s="87" t="s">
         <v>314</v>
       </c>
@@ -10655,7 +10589,7 @@
       <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="172"/>
+      <c r="A35" s="168"/>
       <c r="B35" s="87" t="s">
         <v>329</v>
       </c>
@@ -10664,7 +10598,7 @@
       <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="172"/>
+      <c r="A36" s="168"/>
       <c r="B36" s="87" t="s">
         <v>289</v>
       </c>
@@ -10677,7 +10611,7 @@
       <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="172" t="s">
+      <c r="A37" s="168" t="s">
         <v>295</v>
       </c>
       <c r="B37" s="87" t="s">
@@ -10692,7 +10626,7 @@
       <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="172"/>
+      <c r="A38" s="168"/>
       <c r="B38" s="87" t="s">
         <v>304</v>
       </c>
@@ -10705,7 +10639,7 @@
       <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="172"/>
+      <c r="A39" s="168"/>
       <c r="B39" s="87" t="s">
         <v>305</v>
       </c>
@@ -10718,7 +10652,7 @@
       <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="172"/>
+      <c r="A40" s="168"/>
       <c r="B40" s="87" t="s">
         <v>309</v>
       </c>
@@ -10731,7 +10665,7 @@
       <c r="E40" s="25"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="172"/>
+      <c r="A41" s="168"/>
       <c r="B41" s="87" t="s">
         <v>327</v>
       </c>
@@ -10740,7 +10674,7 @@
       <c r="E41" s="25"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="172"/>
+      <c r="A42" s="168"/>
       <c r="B42" s="25" t="s">
         <v>310</v>
       </c>
@@ -10753,7 +10687,7 @@
       <c r="E42" s="25"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="168" t="s">
         <v>312</v>
       </c>
       <c r="B43" s="25" t="s">
@@ -10768,7 +10702,7 @@
       <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="172"/>
+      <c r="A44" s="168"/>
       <c r="B44" s="25" t="s">
         <v>315</v>
       </c>
@@ -10889,7 +10823,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="165" t="s">
         <v>447</v>
       </c>
       <c r="B18" s="111" t="s">
@@ -10900,7 +10834,7 @@
       <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="170"/>
+      <c r="A19" s="166"/>
       <c r="B19" s="109" t="s">
         <v>449</v>
       </c>
@@ -10909,7 +10843,7 @@
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="170"/>
+      <c r="A20" s="166"/>
       <c r="B20" s="65" t="s">
         <v>423</v>
       </c>
@@ -10918,7 +10852,7 @@
       <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="170"/>
+      <c r="A21" s="166"/>
       <c r="B21" s="108" t="s">
         <v>445</v>
       </c>
@@ -10927,7 +10861,7 @@
       <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="170"/>
+      <c r="A22" s="166"/>
       <c r="B22" s="110" t="s">
         <v>448</v>
       </c>
@@ -10936,28 +10870,28 @@
       <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="170"/>
+      <c r="A23" s="166"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="170"/>
+      <c r="A24" s="166"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="171"/>
+      <c r="A25" s="167"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="168" t="s">
         <v>424</v>
       </c>
       <c r="B26" s="65" t="s">
@@ -10968,7 +10902,7 @@
       <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="172"/>
+      <c r="A27" s="168"/>
       <c r="B27" s="86" t="s">
         <v>443</v>
       </c>
@@ -10977,7 +10911,7 @@
       <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="172"/>
+      <c r="A28" s="168"/>
       <c r="B28" s="108" t="s">
         <v>439</v>
       </c>
@@ -10986,21 +10920,21 @@
       <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="172"/>
+      <c r="A29" s="168"/>
       <c r="B29" s="87"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="172"/>
+      <c r="A30" s="168"/>
       <c r="B30" s="108"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="172" t="s">
+      <c r="A31" s="168" t="s">
         <v>451</v>
       </c>
       <c r="B31" s="108" t="s">
@@ -11011,7 +10945,7 @@
       <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="172"/>
+      <c r="A32" s="168"/>
       <c r="B32" s="108" t="s">
         <v>453</v>
       </c>
@@ -11020,7 +10954,7 @@
       <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="172"/>
+      <c r="A33" s="168"/>
       <c r="B33" s="25" t="s">
         <v>444</v>
       </c>
@@ -11029,7 +10963,7 @@
       <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="172"/>
+      <c r="A34" s="168"/>
       <c r="B34" s="87" t="s">
         <v>454</v>
       </c>
@@ -11038,21 +10972,21 @@
       <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="172"/>
+      <c r="A35" s="168"/>
       <c r="B35" s="87"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="172"/>
+      <c r="A36" s="168"/>
       <c r="B36" s="87"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="172"/>
+      <c r="A37" s="168"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -11137,23 +11071,23 @@
       <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="175" t="s">
+      <c r="D1" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="180" t="s">
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
       <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="193.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="169" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -11168,13 +11102,13 @@
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="178" t="s">
+      <c r="F2" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="181" t="s">
+      <c r="G2" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="174" t="s">
+      <c r="H2" s="170" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -11183,7 +11117,7 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="173"/>
+      <c r="A3" s="169"/>
       <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
@@ -11193,22 +11127,22 @@
       <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="179"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="174"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="170"/>
       <c r="I3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="173" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="181" t="s">
+      <c r="C4" s="177" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -11223,11 +11157,11 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:12" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="177"/>
+      <c r="A5" s="173"/>
       <c r="B5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="181"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
@@ -11276,16 +11210,16 @@
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="182"/>
+      <c r="C1" s="178"/>
       <c r="D1" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="179" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="39">
@@ -11299,7 +11233,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="183"/>
+      <c r="A3" s="179"/>
       <c r="B3" s="39">
         <v>2</v>
       </c>
@@ -11311,7 +11245,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="180" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="39">
@@ -11325,7 +11259,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="184"/>
+      <c r="A5" s="180"/>
       <c r="B5" s="39">
         <v>4</v>
       </c>
@@ -11337,7 +11271,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="184"/>
+      <c r="A6" s="180"/>
       <c r="B6" s="39">
         <v>5</v>
       </c>
@@ -11349,7 +11283,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="184"/>
+      <c r="A7" s="180"/>
       <c r="B7" s="39">
         <v>6</v>
       </c>
@@ -11361,7 +11295,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="184" t="s">
+      <c r="A8" s="180" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="39">
@@ -11375,7 +11309,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="184"/>
+      <c r="A9" s="180"/>
       <c r="B9" s="39">
         <v>8</v>
       </c>
@@ -11387,7 +11321,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="184" t="s">
+      <c r="A10" s="180" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="39">
@@ -11401,7 +11335,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="184"/>
+      <c r="A11" s="180"/>
       <c r="B11" s="39">
         <v>10</v>
       </c>
@@ -11411,7 +11345,7 @@
       <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="184"/>
+      <c r="A12" s="180"/>
       <c r="B12" s="39">
         <v>11</v>
       </c>
@@ -11433,7 +11367,7 @@
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="172" t="s">
+      <c r="A14" s="168" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="39">
@@ -11447,7 +11381,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="172"/>
+      <c r="A15" s="168"/>
       <c r="B15" s="39">
         <v>14</v>
       </c>
@@ -11459,7 +11393,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="172"/>
+      <c r="A16" s="168"/>
       <c r="B16" s="39">
         <v>15</v>
       </c>
@@ -11609,16 +11543,16 @@
       <c r="B2" s="27">
         <v>26</v>
       </c>
-      <c r="C2" s="169">
+      <c r="C2" s="165">
         <v>14</v>
       </c>
-      <c r="D2" s="185">
+      <c r="D2" s="181">
         <v>1</v>
       </c>
-      <c r="E2" s="169">
+      <c r="E2" s="165">
         <v>0.1</v>
       </c>
-      <c r="F2" s="169">
+      <c r="F2" s="165">
         <f>B6*C2*D2*E2*12</f>
         <v>688.80000000000007</v>
       </c>
@@ -11630,10 +11564,10 @@
       <c r="B3" s="27">
         <v>13</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
@@ -11642,10 +11576,10 @@
       <c r="B4" s="27">
         <v>1</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -11654,10 +11588,10 @@
       <c r="B5" s="27">
         <v>1</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
@@ -11667,10 +11601,10 @@
         <f>SUM(B2:B5)</f>
         <v>41</v>
       </c>
-      <c r="C6" s="171"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14">
@@ -11749,7 +11683,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="159" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -11760,7 +11694,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="164"/>
+      <c r="A3" s="160"/>
       <c r="B3" s="5" t="s">
         <v>64</v>
       </c>
@@ -11769,7 +11703,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="164"/>
+      <c r="A4" s="160"/>
       <c r="B4" s="5" t="s">
         <v>65</v>
       </c>
@@ -11778,7 +11712,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="164"/>
+      <c r="A5" s="160"/>
       <c r="B5" s="5" t="s">
         <v>66</v>
       </c>
@@ -11787,12 +11721,12 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="165"/>
+      <c r="A6" s="161"/>
       <c r="B6" s="5"/>
       <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="160" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -11803,7 +11737,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="164"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="5" t="s">
         <v>71</v>
       </c>
@@ -11812,7 +11746,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="164"/>
+      <c r="A9" s="160"/>
       <c r="B9" s="5" t="s">
         <v>75</v>
       </c>
@@ -11821,7 +11755,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="164"/>
+      <c r="A10" s="160"/>
       <c r="B10" s="5" t="s">
         <v>80</v>
       </c>
@@ -11830,7 +11764,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="164"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="5" t="s">
         <v>84</v>
       </c>
@@ -11839,7 +11773,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="164"/>
+      <c r="A12" s="160"/>
       <c r="B12" s="5" t="s">
         <v>78</v>
       </c>
@@ -11848,22 +11782,22 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="164"/>
+      <c r="A13" s="160"/>
       <c r="B13" s="5"/>
       <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="164"/>
+      <c r="A14" s="160"/>
       <c r="B14" s="5"/>
       <c r="C14" s="30"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="165"/>
+      <c r="A15" s="161"/>
       <c r="B15" s="5"/>
       <c r="C15" s="30"/>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="159" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -11874,7 +11808,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="164"/>
+      <c r="A17" s="160"/>
       <c r="B17" s="5" t="s">
         <v>86</v>
       </c>
@@ -11883,7 +11817,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="164"/>
+      <c r="A18" s="160"/>
       <c r="B18" s="5" t="s">
         <v>70</v>
       </c>
@@ -11892,7 +11826,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="164"/>
+      <c r="A19" s="160"/>
       <c r="B19" s="5" t="s">
         <v>72</v>
       </c>
@@ -11901,7 +11835,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="164"/>
+      <c r="A20" s="160"/>
       <c r="B20" s="5" t="s">
         <v>73</v>
       </c>
@@ -11910,7 +11844,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="164"/>
+      <c r="A21" s="160"/>
       <c r="B21" s="5" t="s">
         <v>74</v>
       </c>
@@ -11919,7 +11853,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="164"/>
+      <c r="A22" s="160"/>
       <c r="B22" s="5" t="s">
         <v>83</v>
       </c>
@@ -11928,12 +11862,12 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="165"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="5"/>
       <c r="C23" s="30"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="163" t="s">
+      <c r="A24" s="159" t="s">
         <v>59</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -11944,7 +11878,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="164"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="5" t="s">
         <v>69</v>
       </c>
@@ -11953,7 +11887,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="164"/>
+      <c r="A26" s="160"/>
       <c r="B26" s="5" t="s">
         <v>76</v>
       </c>
@@ -11962,7 +11896,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="164"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="5" t="s">
         <v>77</v>
       </c>
@@ -11971,12 +11905,12 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="165"/>
+      <c r="A28" s="161"/>
       <c r="B28" s="5"/>
       <c r="C28" s="30"/>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="163" t="s">
+      <c r="A29" s="159" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -11987,7 +11921,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="164"/>
+      <c r="A30" s="160"/>
       <c r="B30" s="5" t="s">
         <v>81</v>
       </c>
@@ -11996,7 +11930,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="164"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="5" t="s">
         <v>82</v>
       </c>
@@ -12005,37 +11939,37 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="164"/>
+      <c r="A32" s="160"/>
       <c r="B32" s="5"/>
       <c r="C32" s="30"/>
     </row>
     <row r="33" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="164"/>
+      <c r="A33" s="160"/>
       <c r="B33" s="5"/>
       <c r="C33" s="30"/>
     </row>
     <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="164"/>
+      <c r="A34" s="160"/>
       <c r="B34" s="5"/>
       <c r="C34" s="30"/>
     </row>
     <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="164"/>
+      <c r="A35" s="160"/>
       <c r="B35" s="5"/>
       <c r="C35" s="30"/>
     </row>
     <row r="36" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="164"/>
+      <c r="A36" s="160"/>
       <c r="B36" s="5"/>
       <c r="C36" s="30"/>
     </row>
     <row r="37" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="164"/>
+      <c r="A37" s="160"/>
       <c r="B37" s="5"/>
       <c r="C37" s="30"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="165"/>
+      <c r="A38" s="161"/>
       <c r="B38" s="5"/>
       <c r="C38" s="30"/>
     </row>
@@ -12085,7 +12019,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="165" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -12099,7 +12033,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="171"/>
+      <c r="A3" s="167"/>
       <c r="B3" s="31" t="s">
         <v>142</v>
       </c>
@@ -12111,7 +12045,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="165" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -12125,7 +12059,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="170"/>
+      <c r="A5" s="166"/>
       <c r="B5" s="34" t="s">
         <v>108</v>
       </c>
@@ -12135,7 +12069,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="171"/>
+      <c r="A6" s="167"/>
       <c r="B6" s="33" t="s">
         <v>109</v>
       </c>
@@ -12159,7 +12093,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="165" t="s">
         <v>111</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -12173,7 +12107,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="170"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="31" t="s">
         <v>112</v>
       </c>
@@ -12183,7 +12117,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="171"/>
+      <c r="A10" s="167"/>
       <c r="B10" s="34" t="s">
         <v>116</v>
       </c>
@@ -12193,7 +12127,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="165" t="s">
         <v>120</v>
       </c>
       <c r="B11" s="36" t="s">
@@ -12207,7 +12141,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="171"/>
+      <c r="A12" s="167"/>
       <c r="B12" s="35" t="s">
         <v>112</v>
       </c>
@@ -12243,7 +12177,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="169" t="s">
+      <c r="A15" s="165" t="s">
         <v>122</v>
       </c>
       <c r="B15" s="31" t="s">
@@ -12257,7 +12191,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="170"/>
+      <c r="A16" s="166"/>
       <c r="B16" s="31" t="s">
         <v>134</v>
       </c>
@@ -12269,7 +12203,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="170"/>
+      <c r="A17" s="166"/>
       <c r="B17" s="18" t="s">
         <v>136</v>
       </c>
@@ -12281,7 +12215,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="171"/>
+      <c r="A18" s="167"/>
       <c r="B18" s="18" t="s">
         <v>138</v>
       </c>
@@ -12307,7 +12241,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="169" t="s">
+      <c r="A20" s="165" t="s">
         <v>123</v>
       </c>
       <c r="B20" s="33" t="s">
@@ -12321,7 +12255,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="171"/>
+      <c r="A21" s="167"/>
       <c r="B21" s="33" t="s">
         <v>147</v>
       </c>

--- a/计划表.xlsx
+++ b/计划表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28640" windowHeight="16220" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="任务清单" sheetId="20" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="weibot需求" sheetId="22" state="hidden" r:id="rId12"/>
     <sheet name="bot的类型" sheetId="23" state="hidden" r:id="rId13"/>
     <sheet name="820任务计划" sheetId="27" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="29" r:id="rId15"/>
+    <sheet name="工作表1" sheetId="30" r:id="rId15"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="677">
   <si>
     <t>非功能需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4044,106 +4044,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>profile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支撑模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出差至南非的人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在南非常住的人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南非紧急电话卡、膳食服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过welink接入当地办公网络后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送当前地理位置至bot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性推送南非常住员工信息给bot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、提供统一入口
-2、内容承载页面（含应急电话、膳食信息、从哪里找到卡片、离开南非后卡片会消失提示）
-3、bot中提示信息的文案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出差申请提交后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快过出差的人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送快过差旅消息给bot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、提供差旅攻略的入口
-2、根据出差国反馈攻略url
-3、确认消息中的文案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、welink消息置顶
-2、卡片可跳转至h5或welink内页
-3、welink和espace端可查看消息并跳转
-4、IM消息支持超链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、推送IM消息
-2、根据文案和页面链接拼接好承接给用户的消息内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索国家时把国家相关的卡片放到前面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>智能问答场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4411,6 +4311,1074 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二完成im消息发往bot</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'yi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>er</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三完成群消息发往bot和bot给群发消息</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'san</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fa'wang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>he</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qun</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fa'xiao'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫志刚</t>
+    <rPh sb="0" eb="1">
+      <t>yan'zhi'gang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一完成差旅消息推送，接收bot推送并发给IM</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chai'lv</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tui'song</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jie'shou</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>tui'song</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>fa'gei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一完成消息推往bot，支持卡片消息</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ka'pian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xiao'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三完成IM群中查询会议时间的联调</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'san</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cha'xun</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hui'yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>lian'tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四完成出差攻略查询业务逻辑开发</t>
+    <rPh sb="0" eb="1">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chu'chau</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'lue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cha'xun</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>luo'ji</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四完成差旅攻略对话和业务的联调</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cehng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chai'lv</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'lue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dui'hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>lian'tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二完成会议时间查询对话及业务逻辑开发</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'er</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui'yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cha'xun</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dui'hua</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>luo'ji</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五完成DMZ代理服务器的迁移</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dai'li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu'wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qian'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <rPh sb="0" eb="1">
+      <t>chang'jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片跳转</t>
+    <rPh sb="0" eb="1">
+      <t>ka'pian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tiao'zhuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能需求</t>
+    <rPh sb="0" eb="1">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>差旅签名推荐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：出差时推荐一则差旅签名，用户点击卡片上的按钮后进入到welink签名修改页，并把差旅签名带入</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>chai'lv</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qian'ming</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tui'jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chu'chai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tui'jian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi'ze</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chai'lv</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>qian'ming</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ka'pian</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>de</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>an'niu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jin'ru</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>qian'ming</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>bing'ba</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>chai'lv</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>qian'ming</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>dai'ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片分类</t>
+    <rPh sb="0" eb="1">
+      <t>ka'pian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一卡通充值提醒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：提醒一卡通充值，点击后跳转至一卡通充值界面</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>yi'ka'tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chong'zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti'xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi'ka'tong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chong'zhi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dian'ji'hou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>tiao'zhuan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yi'ka'tong</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>chong'zhi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、移动侧卡片能跳转至welink内页
+2、PC侧卡片提示用户请到welink中完成充值</t>
+    <rPh sb="2" eb="3">
+      <t>yi'dong'ce</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ce'mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ka'pian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tiao'zhuan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>nei'ye</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ce</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ka'pian</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ti'shi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>qing'dao</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>chong'hi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请假</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：点击请假卡片，跳转至iHr考勤页面</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>qing'jia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing'jia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ka'pian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tiao'zhuan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>kao'qin</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ye'mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请假委托</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：请假成功后提示用户设置请假委托，点击按钮回复</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>qing'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'tuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing'jia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cheng'gong'hou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>qing'jia</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wei'tuo</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>an'niu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>hui'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、卡片中可嵌入按钮（多个），点击按钮后跳转至welink签名内页并附上签名
+2、如PC端不支此持卡：片呈现“暂不支持此类卡片，请到welink中完成对话”
+3、如PC支持此卡片：点击按钮后调用espace客户端把签名数据更新/回复消息，然后通过bot调用espace服务更新签名</t>
+    <rPh sb="2" eb="3">
+      <t>ka'pian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qian'ru</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>an'niu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>duo'ge</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>an'niu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>tiao'zhuan</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>qian'ming</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>nei'ye</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>fu'shang</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>qian'ming</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>bu'zhi'chi</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ka'pian</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>chegn'xian</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>zan'bu'zhi'chi</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ci'lei</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ka'pian</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>qing'dao</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>dui'hua</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ka'pian</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>an'niu</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ke'hu'duan</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>qian'ming</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>hui'fu</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ran'hou</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>tong'guo</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>fu'wu</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>qian'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、移动侧能跳转至别的app内页并付用户信息和业务id
+2、PC侧要能跳转至请假的we页并附上业务id</t>
+    <rPh sb="2" eb="3">
+      <t>yi'dong'ce</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tiao'zhuan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>nei'ye</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>he</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ce</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>yao'neng</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>tiao'zhuan</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>qing'jia</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>de</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>fu'shang</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ye'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">m </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>投票场景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：团队中发起投票后，生成投票卡片，团队成员选取投票意向</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>tou'piao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang'jing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tuan'dui'zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fa'qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tou'piao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>sheng'cheng</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>tou'piao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ka'pian</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>tuan'dui</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>cheng'yua</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xuan'qu</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>tou'piao'yi'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、移动侧点击按钮回复按钮中的文字，并附上业务id
+2、bot调用服务完成签名和邮件回执的设定</t>
+    <rPh sb="2" eb="3">
+      <t>yi'dong'ce</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>an'niu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hui'fu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>an'niu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wen'zi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>fu'shang</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>diao'yong</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>fu'w</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>qian'ming</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>he</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>you'jian</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>hui'zhi</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>de</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>she'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、移动侧点击按钮回复按钮中的文字，并附上业务id
+2、点击按钮时回调某个服务，并传递参数</t>
+    <rPh sb="2" eb="3">
+      <t>yi'dong'ce</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>an'niu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hui'fu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>an'niu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wen'zi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>fu'shang</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>an'niu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>hui'diao</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>mou'ge</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>f'wu</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>chuan'di</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片回复（带回调）</t>
+    <rPh sb="0" eb="1">
+      <t>ka'pian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hui'diao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4790,7 +5758,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -4983,11 +5951,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5370,15 +6347,6 @@
     <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5436,6 +6404,26 @@
     <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5586,6 +6574,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5601,23 +6592,14 @@
     <xf numFmtId="0" fontId="29" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5936,7 +6918,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="164" t="s">
         <v>372</v>
       </c>
       <c r="B2" s="93" t="s">
@@ -5953,7 +6935,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="160"/>
+      <c r="A3" s="165"/>
       <c r="B3" s="89" t="s">
         <v>375</v>
       </c>
@@ -5968,7 +6950,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="160"/>
+      <c r="A4" s="165"/>
       <c r="B4" s="89" t="s">
         <v>394</v>
       </c>
@@ -5983,7 +6965,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="160"/>
+      <c r="A5" s="165"/>
       <c r="B5" s="89" t="s">
         <v>393</v>
       </c>
@@ -5998,7 +6980,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="161"/>
+      <c r="A6" s="166"/>
       <c r="B6" s="89" t="s">
         <v>401</v>
       </c>
@@ -6013,7 +6995,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="163" t="s">
         <v>363</v>
       </c>
       <c r="B7" s="89" t="s">
@@ -6030,7 +7012,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="158"/>
+      <c r="A8" s="163"/>
       <c r="B8" s="95" t="s">
         <v>384</v>
       </c>
@@ -6045,7 +7027,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="158"/>
+      <c r="A9" s="163"/>
       <c r="B9" s="94" t="s">
         <v>391</v>
       </c>
@@ -6060,7 +7042,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="158"/>
+      <c r="A10" s="163"/>
       <c r="B10" s="94" t="s">
         <v>392</v>
       </c>
@@ -6075,7 +7057,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="158"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="89" t="s">
         <v>379</v>
       </c>
@@ -6090,7 +7072,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="158"/>
+      <c r="A12" s="163"/>
       <c r="B12" s="89" t="s">
         <v>383</v>
       </c>
@@ -6105,7 +7087,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="158"/>
+      <c r="A13" s="163"/>
       <c r="B13" s="89" t="s">
         <v>378</v>
       </c>
@@ -6120,7 +7102,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="158"/>
+      <c r="A14" s="163"/>
       <c r="B14" s="89" t="s">
         <v>397</v>
       </c>
@@ -6135,14 +7117,14 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="158"/>
+      <c r="A15" s="163"/>
       <c r="B15" s="89"/>
       <c r="C15" s="89"/>
       <c r="D15" s="94"/>
       <c r="E15" s="89"/>
     </row>
     <row r="18" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="162" t="s">
+      <c r="A18" s="167" t="s">
         <v>402</v>
       </c>
       <c r="B18" s="76" t="s">
@@ -6155,7 +7137,7 @@
       <c r="E18" s="89"/>
     </row>
     <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="163"/>
+      <c r="A19" s="168"/>
       <c r="B19" s="76"/>
       <c r="C19" s="89"/>
       <c r="D19" s="4" t="s">
@@ -6164,7 +7146,7 @@
       <c r="E19" s="89"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="163"/>
+      <c r="A20" s="168"/>
       <c r="B20" s="76"/>
       <c r="C20" s="89"/>
       <c r="D20" s="4" t="s">
@@ -6173,7 +7155,7 @@
       <c r="E20" s="89"/>
     </row>
     <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="163"/>
+      <c r="A21" s="168"/>
       <c r="B21" s="76"/>
       <c r="C21" s="89"/>
       <c r="D21" s="4" t="s">
@@ -6182,7 +7164,7 @@
       <c r="E21" s="89"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="163"/>
+      <c r="A22" s="168"/>
       <c r="B22" s="76"/>
       <c r="C22" s="89"/>
       <c r="D22" s="4" t="s">
@@ -6191,7 +7173,7 @@
       <c r="E22" s="89"/>
     </row>
     <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="163"/>
+      <c r="A23" s="168"/>
       <c r="B23" s="76"/>
       <c r="C23" s="89"/>
       <c r="D23" s="4" t="s">
@@ -6200,14 +7182,14 @@
       <c r="E23" s="89"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="164"/>
+      <c r="A24" s="169"/>
       <c r="B24" s="76"/>
       <c r="C24" s="92"/>
       <c r="D24" s="4"/>
       <c r="E24" s="92"/>
     </row>
     <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="162" t="s">
+      <c r="A25" s="167" t="s">
         <v>403</v>
       </c>
       <c r="B25" s="76"/>
@@ -6218,7 +7200,7 @@
       <c r="E25" s="89"/>
     </row>
     <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="163"/>
+      <c r="A26" s="168"/>
       <c r="B26" s="76"/>
       <c r="C26" s="89"/>
       <c r="D26" s="98" t="s">
@@ -6227,7 +7209,7 @@
       <c r="E26" s="89"/>
     </row>
     <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="164"/>
+      <c r="A27" s="169"/>
       <c r="B27" s="76"/>
       <c r="C27" s="89"/>
       <c r="D27" s="4" t="s">
@@ -6300,42 +7282,42 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="189" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="192" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="190" t="s">
+      <c r="D2" s="195" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="185"/>
+      <c r="A3" s="190"/>
       <c r="B3" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="191"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="196"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="185"/>
+      <c r="A4" s="190"/>
       <c r="B4" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="191"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="196"/>
     </row>
     <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="186"/>
+      <c r="A5" s="191"/>
       <c r="B5" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="189"/>
-      <c r="D5" s="191"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="196"/>
     </row>
     <row r="6" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
@@ -6347,7 +7329,7 @@
       <c r="C6" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="191"/>
+      <c r="D6" s="196"/>
     </row>
     <row r="7" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
@@ -6359,43 +7341,43 @@
       <c r="C7" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="191"/>
+      <c r="D7" s="196"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="184" t="s">
+      <c r="A8" s="189" t="s">
         <v>176</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="187" t="s">
+      <c r="C8" s="192" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="191"/>
+      <c r="D8" s="196"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="185"/>
+      <c r="A9" s="190"/>
       <c r="B9" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="188"/>
-      <c r="D9" s="191"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="196"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="185"/>
+      <c r="A10" s="190"/>
       <c r="B10" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="188"/>
-      <c r="D10" s="191"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="196"/>
     </row>
     <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="186"/>
+      <c r="A11" s="191"/>
       <c r="B11" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="189"/>
-      <c r="D11" s="192"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="197"/>
     </row>
     <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
@@ -6407,7 +7389,7 @@
       <c r="C12" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="190" t="s">
+      <c r="D12" s="195" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6421,63 +7403,63 @@
       <c r="C13" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="191"/>
+      <c r="D13" s="196"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="184" t="s">
+      <c r="A14" s="189" t="s">
         <v>185</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="187" t="s">
+      <c r="C14" s="192" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="191"/>
+      <c r="D14" s="196"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="185"/>
+      <c r="A15" s="190"/>
       <c r="B15" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="188"/>
-      <c r="D15" s="191"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="196"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="185"/>
+      <c r="A16" s="190"/>
       <c r="B16" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="188"/>
-      <c r="D16" s="191"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="196"/>
     </row>
     <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="186"/>
+      <c r="A17" s="191"/>
       <c r="B17" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="189"/>
-      <c r="D17" s="191"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="196"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="195" t="s">
+      <c r="A18" s="200" t="s">
         <v>190</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="190" t="s">
+      <c r="C18" s="195" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="191"/>
+      <c r="D18" s="196"/>
     </row>
     <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="196"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="192"/>
-      <c r="D19" s="191"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="196"/>
     </row>
     <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
@@ -6489,7 +7471,7 @@
       <c r="C20" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="192"/>
+      <c r="D20" s="197"/>
     </row>
     <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
@@ -6501,7 +7483,7 @@
       <c r="C21" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="190" t="s">
+      <c r="D21" s="195" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6515,43 +7497,43 @@
       <c r="C22" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="191"/>
+      <c r="D22" s="196"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="184" t="s">
+      <c r="A23" s="189" t="s">
         <v>200</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="187" t="s">
+      <c r="C23" s="192" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="191"/>
+      <c r="D23" s="196"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="185"/>
+      <c r="A24" s="190"/>
       <c r="B24" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="188"/>
-      <c r="D24" s="191"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="196"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="185"/>
+      <c r="A25" s="190"/>
       <c r="B25" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="188"/>
-      <c r="D25" s="191"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="196"/>
     </row>
     <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="186"/>
+      <c r="A26" s="191"/>
       <c r="B26" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="189"/>
-      <c r="D26" s="191"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="196"/>
     </row>
     <row r="27" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
@@ -6563,27 +7545,27 @@
       <c r="C27" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="191"/>
+      <c r="D27" s="196"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="184" t="s">
+      <c r="A28" s="189" t="s">
         <v>207</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="187" t="s">
+      <c r="C28" s="192" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="191"/>
+      <c r="D28" s="196"/>
     </row>
     <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="186"/>
+      <c r="A29" s="191"/>
       <c r="B29" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="189"/>
-      <c r="D29" s="192"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="197"/>
     </row>
     <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6596,7 +7578,7 @@
       <c r="C31" s="57"/>
     </row>
     <row r="32" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="193" t="s">
+      <c r="A32" s="198" t="s">
         <v>190</v>
       </c>
       <c r="B32" s="59" t="s">
@@ -6605,14 +7587,14 @@
       <c r="C32" s="58"/>
     </row>
     <row r="33" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="194"/>
+      <c r="A33" s="199"/>
       <c r="B33" s="62" t="s">
         <v>254</v>
       </c>
       <c r="C33" s="58"/>
     </row>
     <row r="34" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="193" t="s">
+      <c r="A34" s="198" t="s">
         <v>207</v>
       </c>
       <c r="B34" s="62" t="s">
@@ -6621,14 +7603,14 @@
       <c r="C34" s="58"/>
     </row>
     <row r="35" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="194"/>
+      <c r="A35" s="199"/>
       <c r="B35" s="61" t="s">
         <v>216</v>
       </c>
       <c r="C35" s="58"/>
     </row>
     <row r="36" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="193" t="s">
+      <c r="A36" s="198" t="s">
         <v>174</v>
       </c>
       <c r="B36" s="61" t="s">
@@ -6637,28 +7619,28 @@
       <c r="C36" s="58"/>
     </row>
     <row r="37" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="197"/>
+      <c r="A37" s="202"/>
       <c r="B37" s="59" t="s">
         <v>217</v>
       </c>
       <c r="C37" s="58"/>
     </row>
     <row r="38" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="197"/>
+      <c r="A38" s="202"/>
       <c r="B38" s="59" t="s">
         <v>218</v>
       </c>
       <c r="C38" s="58"/>
     </row>
     <row r="39" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="194"/>
+      <c r="A39" s="199"/>
       <c r="B39" s="59" t="s">
         <v>219</v>
       </c>
       <c r="C39" s="58"/>
     </row>
     <row r="40" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="193" t="s">
+      <c r="A40" s="198" t="s">
         <v>185</v>
       </c>
       <c r="B40" s="59" t="s">
@@ -6667,14 +7649,14 @@
       <c r="C40" s="58"/>
     </row>
     <row r="41" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="194"/>
+      <c r="A41" s="199"/>
       <c r="B41" s="59" t="s">
         <v>221</v>
       </c>
       <c r="C41" s="58"/>
     </row>
     <row r="42" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="193" t="s">
+      <c r="A42" s="198" t="s">
         <v>257</v>
       </c>
       <c r="B42" s="62" t="s">
@@ -6683,21 +7665,21 @@
       <c r="C42" s="58"/>
     </row>
     <row r="43" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="197"/>
+      <c r="A43" s="202"/>
       <c r="B43" s="61" t="s">
         <v>261</v>
       </c>
       <c r="C43" s="58"/>
     </row>
     <row r="44" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="194"/>
+      <c r="A44" s="199"/>
       <c r="B44" s="61" t="s">
         <v>262</v>
       </c>
       <c r="C44" s="58"/>
     </row>
     <row r="45" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="198" t="s">
+      <c r="A45" s="203" t="s">
         <v>212</v>
       </c>
       <c r="B45" s="62" t="s">
@@ -6706,28 +7688,28 @@
       <c r="C45" s="58"/>
     </row>
     <row r="46" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="199"/>
+      <c r="A46" s="204"/>
       <c r="B46" s="61" t="s">
         <v>256</v>
       </c>
       <c r="C46" s="58"/>
     </row>
     <row r="47" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="199"/>
+      <c r="A47" s="204"/>
       <c r="B47" s="62" t="s">
         <v>259</v>
       </c>
       <c r="C47" s="58"/>
     </row>
     <row r="48" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="200"/>
+      <c r="A48" s="205"/>
       <c r="B48" s="61" t="s">
         <v>260</v>
       </c>
       <c r="C48" s="58"/>
     </row>
     <row r="49" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="198" t="s">
+      <c r="A49" s="203" t="s">
         <v>213</v>
       </c>
       <c r="B49" s="61" t="s">
@@ -6736,35 +7718,35 @@
       <c r="C49" s="58"/>
     </row>
     <row r="50" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="199"/>
+      <c r="A50" s="204"/>
       <c r="B50" s="59" t="s">
         <v>223</v>
       </c>
       <c r="C50" s="58"/>
     </row>
     <row r="51" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="199"/>
+      <c r="A51" s="204"/>
       <c r="B51" s="59" t="s">
         <v>224</v>
       </c>
       <c r="C51" s="58"/>
     </row>
     <row r="52" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="199"/>
+      <c r="A52" s="204"/>
       <c r="B52" s="59" t="s">
         <v>225</v>
       </c>
       <c r="C52" s="58"/>
     </row>
     <row r="53" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="199"/>
+      <c r="A53" s="204"/>
       <c r="B53" s="59" t="s">
         <v>226</v>
       </c>
       <c r="C53" s="58"/>
     </row>
     <row r="54" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="200"/>
+      <c r="A54" s="205"/>
       <c r="B54" s="59" t="s">
         <v>227</v>
       </c>
@@ -7162,7 +8144,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="185" t="s">
         <v>530</v>
       </c>
       <c r="B2" s="126" t="s">
@@ -7179,7 +8161,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="180"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="21" t="s">
         <v>545</v>
       </c>
@@ -7194,7 +8176,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="180"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="124" t="s">
         <v>582</v>
       </c>
@@ -7209,7 +8191,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="180"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="126" t="s">
         <v>562</v>
       </c>
@@ -7224,7 +8206,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="180"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="124" t="s">
         <v>566</v>
       </c>
@@ -7239,7 +8221,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="180"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="126" t="s">
         <v>597</v>
       </c>
@@ -7254,7 +8236,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="180"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="124" t="s">
         <v>594</v>
       </c>
@@ -7269,7 +8251,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="180"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="124" t="s">
         <v>606</v>
       </c>
@@ -7278,7 +8260,7 @@
       <c r="E9" s="122"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="180"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="124" t="s">
         <v>598</v>
       </c>
@@ -7293,7 +8275,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="170" t="s">
         <v>591</v>
       </c>
       <c r="B11" s="126" t="s">
@@ -7310,7 +8292,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="166"/>
+      <c r="A12" s="171"/>
       <c r="B12" s="126" t="s">
         <v>532</v>
       </c>
@@ -7325,7 +8307,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="166"/>
+      <c r="A13" s="171"/>
       <c r="B13" s="126" t="s">
         <v>564</v>
       </c>
@@ -7340,7 +8322,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="166"/>
+      <c r="A14" s="171"/>
       <c r="B14" s="124" t="s">
         <v>589</v>
       </c>
@@ -7351,7 +8333,7 @@
       <c r="E14" s="122"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="166"/>
+      <c r="A15" s="171"/>
       <c r="B15" s="124" t="s">
         <v>604</v>
       </c>
@@ -7360,7 +8342,7 @@
       <c r="E15" s="122"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="166"/>
+      <c r="A16" s="171"/>
       <c r="B16" s="126" t="s">
         <v>536</v>
       </c>
@@ -7375,7 +8357,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="166"/>
+      <c r="A17" s="171"/>
       <c r="B17" s="126" t="s">
         <v>538</v>
       </c>
@@ -7390,7 +8372,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="166"/>
+      <c r="A18" s="171"/>
       <c r="B18" s="124" t="s">
         <v>605</v>
       </c>
@@ -7405,14 +8387,14 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="166"/>
+      <c r="A19" s="171"/>
       <c r="B19" s="124"/>
       <c r="C19" s="122"/>
       <c r="D19" s="122"/>
       <c r="E19" s="122"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="167"/>
+      <c r="A20" s="172"/>
       <c r="B20" s="124" t="s">
         <v>612</v>
       </c>
@@ -7423,7 +8405,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="168" t="s">
+      <c r="A21" s="173" t="s">
         <v>541</v>
       </c>
       <c r="B21" s="126" t="s">
@@ -7440,7 +8422,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="168"/>
+      <c r="A22" s="173"/>
       <c r="B22" s="124" t="s">
         <v>543</v>
       </c>
@@ -7455,7 +8437,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="168"/>
+      <c r="A23" s="173"/>
       <c r="B23" s="16" t="s">
         <v>603</v>
       </c>
@@ -7464,21 +8446,21 @@
       <c r="E23" s="122"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="168"/>
+      <c r="A24" s="173"/>
       <c r="B24" s="124"/>
       <c r="C24" s="122"/>
       <c r="D24" s="122"/>
       <c r="E24" s="122"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="168"/>
+      <c r="A25" s="173"/>
       <c r="B25" s="124"/>
       <c r="C25" s="122"/>
       <c r="D25" s="122"/>
       <c r="E25" s="122"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="168" t="s">
+      <c r="A26" s="173" t="s">
         <v>586</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -7495,7 +8477,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="168"/>
+      <c r="A27" s="173"/>
       <c r="B27" s="16" t="s">
         <v>587</v>
       </c>
@@ -7510,7 +8492,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="168"/>
+      <c r="A28" s="173"/>
       <c r="B28" s="16" t="s">
         <v>595</v>
       </c>
@@ -7525,7 +8507,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="168"/>
+      <c r="A29" s="173"/>
       <c r="B29" s="16" t="s">
         <v>602</v>
       </c>
@@ -7534,14 +8516,14 @@
       <c r="E29" s="122"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="168"/>
+      <c r="A30" s="173"/>
       <c r="B30" s="16"/>
       <c r="C30" s="122"/>
       <c r="D30" s="122"/>
       <c r="E30" s="122"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="168"/>
+      <c r="A31" s="173"/>
       <c r="B31" s="16" t="s">
         <v>570</v>
       </c>
@@ -7556,7 +8538,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="168"/>
+      <c r="A32" s="173"/>
       <c r="B32" s="125" t="s">
         <v>578</v>
       </c>
@@ -7571,7 +8553,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="168"/>
+      <c r="A33" s="173"/>
       <c r="B33" s="21" t="s">
         <v>599</v>
       </c>
@@ -7586,7 +8568,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="168"/>
+      <c r="A34" s="173"/>
       <c r="B34" s="125" t="s">
         <v>601</v>
       </c>
@@ -7601,7 +8583,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="168"/>
+      <c r="A35" s="173"/>
       <c r="B35" s="16" t="s">
         <v>584</v>
       </c>
@@ -7834,34 +8816,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="212" t="s">
         <v>512</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="204" t="s">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="209" t="s">
         <v>513</v>
       </c>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="206"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="211"/>
     </row>
     <row r="2" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="212" t="s">
         <v>521</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="204" t="s">
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="209" t="s">
         <v>522</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="206"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="211"/>
     </row>
     <row r="3" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
@@ -7917,7 +8899,7 @@
       <c r="H4" s="113" t="s">
         <v>485</v>
       </c>
-      <c r="I4" s="201" t="s">
+      <c r="I4" s="206" t="s">
         <v>490</v>
       </c>
     </row>
@@ -7946,7 +8928,7 @@
       <c r="H5" s="114" t="s">
         <v>519</v>
       </c>
-      <c r="I5" s="202"/>
+      <c r="I5" s="207"/>
     </row>
     <row r="6" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="113" t="s">
@@ -7973,7 +8955,7 @@
       <c r="H6" s="113" t="s">
         <v>481</v>
       </c>
-      <c r="I6" s="202"/>
+      <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="113" t="s">
@@ -8000,7 +8982,7 @@
       <c r="H7" s="113" t="s">
         <v>478</v>
       </c>
-      <c r="I7" s="202"/>
+      <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="113" t="s">
@@ -8024,10 +9006,10 @@
       <c r="G8" s="113" t="s">
         <v>488</v>
       </c>
-      <c r="H8" s="159" t="s">
+      <c r="H8" s="164" t="s">
         <v>486</v>
       </c>
-      <c r="I8" s="202"/>
+      <c r="I8" s="207"/>
     </row>
     <row r="9" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="113" t="s">
@@ -8051,8 +9033,8 @@
       <c r="G9" s="113" t="s">
         <v>481</v>
       </c>
-      <c r="H9" s="160"/>
-      <c r="I9" s="202"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="207"/>
     </row>
     <row r="10" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="113" t="s">
@@ -8076,8 +9058,8 @@
       <c r="G10" s="113" t="s">
         <v>501</v>
       </c>
-      <c r="H10" s="161"/>
-      <c r="I10" s="203"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="208"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="117"/>
@@ -8228,10 +9210,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G529"/>
+  <dimension ref="A1:G531"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8240,7 +9222,8 @@
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="131" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8268,374 +9251,416 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="121" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="210" t="s">
-        <v>668</v>
-      </c>
-      <c r="B2" s="156" t="s">
-        <v>660</v>
-      </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="139"/>
+      <c r="A2" s="216" t="s">
+        <v>645</v>
+      </c>
+      <c r="B2" s="153" t="s">
+        <v>637</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="136"/>
     </row>
     <row r="3" spans="1:7" s="121" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="211"/>
-      <c r="B3" s="156" t="s">
-        <v>659</v>
-      </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="139"/>
+      <c r="A3" s="217"/>
+      <c r="B3" s="153" t="s">
+        <v>636</v>
+      </c>
+      <c r="C3" s="135"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="136"/>
     </row>
     <row r="4" spans="1:7" s="121" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="211"/>
-      <c r="B4" s="156" t="s">
-        <v>666</v>
-      </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="139"/>
+      <c r="A4" s="217"/>
+      <c r="B4" s="153" t="s">
+        <v>643</v>
+      </c>
+      <c r="C4" s="135"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="136"/>
     </row>
     <row r="5" spans="1:7" s="121" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="211"/>
-      <c r="B5" s="137" t="s">
-        <v>657</v>
-      </c>
-      <c r="C5" s="138" t="s">
-        <v>658</v>
-      </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="139"/>
+      <c r="A5" s="217"/>
+      <c r="B5" s="134" t="s">
+        <v>634</v>
+      </c>
+      <c r="C5" s="135" t="s">
+        <v>635</v>
+      </c>
+      <c r="D5" s="137"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="136"/>
     </row>
     <row r="6" spans="1:7" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="211"/>
-      <c r="B6" s="137" t="s">
+      <c r="A6" s="217"/>
+      <c r="B6" s="134" t="s">
         <v>621</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
     </row>
     <row r="7" spans="1:7" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="211"/>
-      <c r="B7" s="146" t="s">
+      <c r="A7" s="217"/>
+      <c r="B7" s="143" t="s">
         <v>623</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
     </row>
     <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="211"/>
-      <c r="B8" s="137" t="s">
-        <v>653</v>
-      </c>
-      <c r="C8" s="143" t="s">
-        <v>661</v>
+      <c r="A8" s="217"/>
+      <c r="B8" s="134" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="140" t="s">
+        <v>638</v>
       </c>
       <c r="D8" s="121"/>
-      <c r="E8" s="141" t="s">
+      <c r="E8" s="138" t="s">
         <v>625</v>
       </c>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
     </row>
     <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="211"/>
-      <c r="B9" s="146" t="s">
-        <v>655</v>
-      </c>
-      <c r="C9" s="143" t="s">
-        <v>661</v>
-      </c>
-      <c r="D9" s="144" t="s">
-        <v>656</v>
-      </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
+      <c r="A9" s="217"/>
+      <c r="B9" s="143" t="s">
+        <v>632</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>638</v>
+      </c>
+      <c r="D9" s="141" t="s">
+        <v>633</v>
+      </c>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
     </row>
     <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="211"/>
-      <c r="B10" s="146" t="s">
-        <v>654</v>
-      </c>
-      <c r="C10" s="143" t="s">
-        <v>661</v>
-      </c>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144" t="s">
-        <v>671</v>
-      </c>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
+      <c r="A10" s="217"/>
+      <c r="B10" s="143" t="s">
+        <v>631</v>
+      </c>
+      <c r="C10" s="140" t="s">
+        <v>638</v>
+      </c>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141" t="s">
+        <v>648</v>
+      </c>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="211"/>
-      <c r="B11" s="146" t="s">
-        <v>670</v>
-      </c>
-      <c r="C11" s="143" t="s">
-        <v>661</v>
-      </c>
-      <c r="D11" s="146" t="s">
-        <v>672</v>
-      </c>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="143" t="s">
+        <v>647</v>
+      </c>
+      <c r="C11" s="140" t="s">
+        <v>638</v>
+      </c>
+      <c r="D11" s="143" t="s">
+        <v>649</v>
+      </c>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="211"/>
-      <c r="B12" s="147" t="s">
+      <c r="A12" s="217"/>
+      <c r="B12" s="144" t="s">
         <v>610</v>
       </c>
-      <c r="C12" s="143" t="s">
-        <v>661</v>
-      </c>
-      <c r="D12" s="141" t="s">
-        <v>663</v>
-      </c>
-      <c r="E12" s="141" t="s">
-        <v>664</v>
-      </c>
-      <c r="F12" s="148" t="s">
+      <c r="C12" s="140" t="s">
+        <v>638</v>
+      </c>
+      <c r="D12" s="138" t="s">
+        <v>640</v>
+      </c>
+      <c r="E12" s="138" t="s">
+        <v>641</v>
+      </c>
+      <c r="F12" s="145" t="s">
         <v>617</v>
       </c>
-      <c r="G12" s="139"/>
+      <c r="G12" s="136"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="211"/>
-      <c r="B13" s="147" t="s">
+      <c r="A13" s="217"/>
+      <c r="B13" s="144" t="s">
+        <v>627</v>
+      </c>
+      <c r="C13" s="140" t="s">
+        <v>622</v>
+      </c>
+      <c r="D13" s="142"/>
+      <c r="F13" s="145" t="s">
+        <v>617</v>
+      </c>
+      <c r="G13" s="136"/>
+    </row>
+    <row r="14" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="217"/>
+      <c r="B14" s="144" t="s">
+        <v>626</v>
+      </c>
+      <c r="C14" s="140" t="s">
+        <v>622</v>
+      </c>
+      <c r="D14" s="142"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="145" t="s">
+        <v>617</v>
+      </c>
+      <c r="G14" s="136"/>
+    </row>
+    <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="217"/>
+      <c r="B15" s="144" t="s">
+        <v>624</v>
+      </c>
+      <c r="C15" s="140" t="s">
+        <v>622</v>
+      </c>
+      <c r="D15" s="138" t="s">
+        <v>639</v>
+      </c>
+      <c r="G15" s="136"/>
+    </row>
+    <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="217"/>
+      <c r="B16" s="155" t="s">
+        <v>628</v>
+      </c>
+      <c r="C16" s="140" t="s">
+        <v>622</v>
+      </c>
+      <c r="D16" s="147"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="145" t="s">
+        <v>617</v>
+      </c>
+      <c r="G16" s="136"/>
+    </row>
+    <row r="17" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="218"/>
+      <c r="B17" s="144" t="s">
+        <v>629</v>
+      </c>
+      <c r="C17" s="140" t="s">
+        <v>607</v>
+      </c>
+      <c r="D17" s="138" t="s">
         <v>650</v>
       </c>
-      <c r="C13" s="143" t="s">
-        <v>622</v>
-      </c>
-      <c r="D13" s="145"/>
-      <c r="F13" s="148" t="s">
+      <c r="E17" s="154" t="s">
+        <v>642</v>
+      </c>
+      <c r="F17" s="145" t="s">
         <v>617</v>
       </c>
-      <c r="G13" s="139"/>
-    </row>
-    <row r="14" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="211"/>
-      <c r="B14" s="147" t="s">
-        <v>649</v>
-      </c>
-      <c r="C14" s="143" t="s">
-        <v>622</v>
-      </c>
-      <c r="D14" s="145"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="148" t="s">
-        <v>617</v>
-      </c>
-      <c r="G14" s="139"/>
-    </row>
-    <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="211"/>
-      <c r="B15" s="147" t="s">
-        <v>624</v>
-      </c>
-      <c r="C15" s="143" t="s">
-        <v>622</v>
-      </c>
-      <c r="D15" s="141" t="s">
-        <v>662</v>
-      </c>
-      <c r="G15" s="139"/>
-    </row>
-    <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="211"/>
-      <c r="B16" s="218" t="s">
-        <v>651</v>
-      </c>
-      <c r="C16" s="143" t="s">
-        <v>622</v>
-      </c>
-      <c r="D16" s="150"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="148" t="s">
-        <v>617</v>
-      </c>
-      <c r="G16" s="139"/>
-    </row>
-    <row r="17" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="212"/>
-      <c r="B17" s="147" t="s">
-        <v>652</v>
-      </c>
-      <c r="C17" s="143" t="s">
-        <v>607</v>
-      </c>
-      <c r="D17" s="141" t="s">
-        <v>673</v>
-      </c>
-      <c r="E17" s="157" t="s">
-        <v>665</v>
-      </c>
-      <c r="F17" s="148" t="s">
-        <v>617</v>
-      </c>
-      <c r="G17" s="139"/>
+      <c r="G17" s="136"/>
     </row>
     <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="210" t="s">
+      <c r="A18" s="216" t="s">
         <v>527</v>
       </c>
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="148" t="s">
         <v>608</v>
       </c>
-      <c r="C18" s="208" t="s">
-        <v>669</v>
-      </c>
-      <c r="D18" s="157" t="s">
-        <v>667</v>
-      </c>
-      <c r="F18" s="149"/>
-      <c r="G18" s="139"/>
+      <c r="C18" s="214" t="s">
+        <v>646</v>
+      </c>
+      <c r="D18" s="154" t="s">
+        <v>644</v>
+      </c>
+      <c r="F18" s="146"/>
+      <c r="G18" s="136"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="211"/>
-      <c r="B19" s="151" t="s">
+      <c r="A19" s="217"/>
+      <c r="B19" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="C19" s="209"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="152" t="s">
+      <c r="C19" s="215"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="149" t="s">
         <v>616</v>
       </c>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="212"/>
-      <c r="B20" s="153" t="s">
+      <c r="A20" s="218"/>
+      <c r="B20" s="150" t="s">
         <v>529</v>
       </c>
-      <c r="C20" s="143" t="s">
+      <c r="C20" s="140" t="s">
         <v>526</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="123" t="s">
         <v>525</v>
       </c>
-      <c r="B21" s="154"/>
-      <c r="C21" s="139" t="s">
+      <c r="B21" s="151"/>
+      <c r="C21" s="136" t="s">
         <v>528</v>
       </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="139"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="132"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C23" s="132"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="136"/>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="156"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="156"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C24" s="132"/>
+      <c r="D24" s="173" t="s">
+        <v>653</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C25" s="132"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="27" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C26" s="132"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="27" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C27" s="132"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="27" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C28" s="131">
-        <v>820</v>
-      </c>
+      <c r="C28" s="132"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C29" s="131">
-        <v>920</v>
+      <c r="C29" s="132"/>
+      <c r="D29" s="213" t="s">
+        <v>622</v>
+      </c>
+      <c r="E29" s="160" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C30" s="131">
-        <v>1020</v>
+      <c r="C30" s="132"/>
+      <c r="D30" s="213"/>
+      <c r="E30" s="160" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C31" s="131">
-        <v>1120</v>
+      <c r="C31" s="132"/>
+      <c r="D31" s="213"/>
+      <c r="E31" s="27" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C32" s="131">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="132"/>
+      <c r="D32" s="213"/>
+      <c r="E32" s="27" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" s="132"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="213"/>
+      <c r="E33" s="161" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" s="132"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" s="132"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" s="132"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" s="132"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" s="132"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" s="132"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" s="132"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" s="132"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" s="132"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" s="132"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" s="132"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" s="132"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" s="132"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" s="132"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" s="132"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
@@ -10081,11 +11106,19 @@
     <row r="529" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C529" s="132"/>
     </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C530" s="132"/>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C531" s="132"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="D29:D33"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="D24:D27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10095,198 +11128,131 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="35.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="14" style="15" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="65.83203125" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="216" t="s">
-        <v>632</v>
-      </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216" t="s">
-        <v>629</v>
-      </c>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-    </row>
-    <row r="2" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="135" t="s">
-        <v>634</v>
-      </c>
-      <c r="B2" s="135" t="s">
-        <v>633</v>
-      </c>
-      <c r="C2" s="136" t="s">
-        <v>631</v>
-      </c>
-      <c r="D2" s="135" t="s">
-        <v>626</v>
-      </c>
-      <c r="E2" s="135" t="s">
-        <v>627</v>
-      </c>
-      <c r="F2" s="135" t="s">
-        <v>628</v>
-      </c>
-      <c r="G2" s="135" t="s">
-        <v>307</v>
-      </c>
-      <c r="H2" s="135" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="181" t="s">
-        <v>637</v>
-      </c>
-      <c r="B3" s="134" t="s">
-        <v>635</v>
-      </c>
-      <c r="C3" s="213" t="s">
-        <v>638</v>
-      </c>
-      <c r="D3" s="134" t="s">
-        <v>639</v>
-      </c>
-      <c r="E3" s="213" t="s">
-        <v>641</v>
-      </c>
-      <c r="F3" s="213" t="s">
-        <v>647</v>
-      </c>
-      <c r="G3" s="213" t="s">
-        <v>646</v>
-      </c>
-      <c r="H3" s="165" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="65.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="183"/>
-      <c r="B4" s="134" t="s">
-        <v>636</v>
-      </c>
-      <c r="C4" s="215"/>
-      <c r="D4" s="134" t="s">
-        <v>640</v>
-      </c>
-      <c r="E4" s="217"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="166"/>
-    </row>
-    <row r="5" spans="1:8" ht="44.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="134" t="s">
-        <v>610</v>
-      </c>
-      <c r="B5" s="134" t="s">
-        <v>643</v>
-      </c>
-      <c r="C5" s="134" t="s">
-        <v>642</v>
-      </c>
-      <c r="D5" s="134" t="s">
-        <v>644</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>645</v>
-      </c>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="167"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="134"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="134"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="134"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="134"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="134"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="134"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
+    <row r="1" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="219" t="s">
+        <v>665</v>
+      </c>
+      <c r="B1" s="220" t="s">
+        <v>661</v>
+      </c>
+      <c r="C1" s="221" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="173" t="s">
+        <v>662</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="173"/>
+      <c r="B3" s="162" t="s">
+        <v>666</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="173"/>
+      <c r="B4" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="186" t="s">
+        <v>676</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="187"/>
+      <c r="B6" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="187"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="25"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="187"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="187"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="25"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="188"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="25"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="63"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="63"/>
+      <c r="C12" s="15" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="63"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="63"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="63"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="63"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10368,7 +11334,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="165" t="s">
+      <c r="A18" s="170" t="s">
         <v>271</v>
       </c>
       <c r="B18" s="88" t="s">
@@ -10385,7 +11351,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="166"/>
+      <c r="A19" s="171"/>
       <c r="B19" s="88" t="s">
         <v>353</v>
       </c>
@@ -10400,7 +11366,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="166"/>
+      <c r="A20" s="171"/>
       <c r="B20" s="65" t="s">
         <v>354</v>
       </c>
@@ -10413,7 +11379,7 @@
       <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="166"/>
+      <c r="A21" s="171"/>
       <c r="B21" s="25" t="s">
         <v>280</v>
       </c>
@@ -10426,7 +11392,7 @@
       <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="166"/>
+      <c r="A22" s="171"/>
       <c r="B22" s="25" t="s">
         <v>323</v>
       </c>
@@ -10441,7 +11407,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="167"/>
+      <c r="A23" s="172"/>
       <c r="B23" s="25" t="s">
         <v>349</v>
       </c>
@@ -10454,7 +11420,7 @@
       <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="168" t="s">
+      <c r="A24" s="173" t="s">
         <v>313</v>
       </c>
       <c r="B24" s="65" t="s">
@@ -10469,7 +11435,7 @@
       <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="168"/>
+      <c r="A25" s="173"/>
       <c r="B25" s="67" t="s">
         <v>294</v>
       </c>
@@ -10482,7 +11448,7 @@
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="168"/>
+      <c r="A26" s="173"/>
       <c r="B26" s="86" t="s">
         <v>342</v>
       </c>
@@ -10493,7 +11459,7 @@
       <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="168"/>
+      <c r="A27" s="173"/>
       <c r="B27" s="69" t="s">
         <v>351</v>
       </c>
@@ -10502,7 +11468,7 @@
       <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="168"/>
+      <c r="A28" s="173"/>
       <c r="B28" s="87" t="s">
         <v>328</v>
       </c>
@@ -10515,7 +11481,7 @@
       <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="168"/>
+      <c r="A29" s="173"/>
       <c r="B29" s="85" t="s">
         <v>352</v>
       </c>
@@ -10524,7 +11490,7 @@
       <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="168"/>
+      <c r="A30" s="173"/>
       <c r="B30" s="25" t="s">
         <v>285</v>
       </c>
@@ -10537,7 +11503,7 @@
       <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="168"/>
+      <c r="A31" s="173"/>
       <c r="B31" s="25" t="s">
         <v>286</v>
       </c>
@@ -10550,7 +11516,7 @@
       <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="168"/>
+      <c r="A32" s="173"/>
       <c r="B32" s="25" t="s">
         <v>287</v>
       </c>
@@ -10563,7 +11529,7 @@
       <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="168"/>
+      <c r="A33" s="173"/>
       <c r="B33" s="87" t="s">
         <v>288</v>
       </c>
@@ -10576,7 +11542,7 @@
       <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="168"/>
+      <c r="A34" s="173"/>
       <c r="B34" s="87" t="s">
         <v>314</v>
       </c>
@@ -10589,7 +11555,7 @@
       <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="168"/>
+      <c r="A35" s="173"/>
       <c r="B35" s="87" t="s">
         <v>329</v>
       </c>
@@ -10598,7 +11564,7 @@
       <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="168"/>
+      <c r="A36" s="173"/>
       <c r="B36" s="87" t="s">
         <v>289</v>
       </c>
@@ -10611,7 +11577,7 @@
       <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="168" t="s">
+      <c r="A37" s="173" t="s">
         <v>295</v>
       </c>
       <c r="B37" s="87" t="s">
@@ -10626,7 +11592,7 @@
       <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="168"/>
+      <c r="A38" s="173"/>
       <c r="B38" s="87" t="s">
         <v>304</v>
       </c>
@@ -10639,7 +11605,7 @@
       <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="168"/>
+      <c r="A39" s="173"/>
       <c r="B39" s="87" t="s">
         <v>305</v>
       </c>
@@ -10652,7 +11618,7 @@
       <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="168"/>
+      <c r="A40" s="173"/>
       <c r="B40" s="87" t="s">
         <v>309</v>
       </c>
@@ -10665,7 +11631,7 @@
       <c r="E40" s="25"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="168"/>
+      <c r="A41" s="173"/>
       <c r="B41" s="87" t="s">
         <v>327</v>
       </c>
@@ -10674,7 +11640,7 @@
       <c r="E41" s="25"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="168"/>
+      <c r="A42" s="173"/>
       <c r="B42" s="25" t="s">
         <v>310</v>
       </c>
@@ -10687,7 +11653,7 @@
       <c r="E42" s="25"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="168" t="s">
+      <c r="A43" s="173" t="s">
         <v>312</v>
       </c>
       <c r="B43" s="25" t="s">
@@ -10702,7 +11668,7 @@
       <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="168"/>
+      <c r="A44" s="173"/>
       <c r="B44" s="25" t="s">
         <v>315</v>
       </c>
@@ -10823,7 +11789,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="165" t="s">
+      <c r="A18" s="170" t="s">
         <v>447</v>
       </c>
       <c r="B18" s="111" t="s">
@@ -10834,7 +11800,7 @@
       <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="166"/>
+      <c r="A19" s="171"/>
       <c r="B19" s="109" t="s">
         <v>449</v>
       </c>
@@ -10843,7 +11809,7 @@
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="166"/>
+      <c r="A20" s="171"/>
       <c r="B20" s="65" t="s">
         <v>423</v>
       </c>
@@ -10852,7 +11818,7 @@
       <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="166"/>
+      <c r="A21" s="171"/>
       <c r="B21" s="108" t="s">
         <v>445</v>
       </c>
@@ -10861,7 +11827,7 @@
       <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="166"/>
+      <c r="A22" s="171"/>
       <c r="B22" s="110" t="s">
         <v>448</v>
       </c>
@@ -10870,28 +11836,28 @@
       <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="166"/>
+      <c r="A23" s="171"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="166"/>
+      <c r="A24" s="171"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="167"/>
+      <c r="A25" s="172"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="168" t="s">
+      <c r="A26" s="173" t="s">
         <v>424</v>
       </c>
       <c r="B26" s="65" t="s">
@@ -10902,7 +11868,7 @@
       <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="168"/>
+      <c r="A27" s="173"/>
       <c r="B27" s="86" t="s">
         <v>443</v>
       </c>
@@ -10911,7 +11877,7 @@
       <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="168"/>
+      <c r="A28" s="173"/>
       <c r="B28" s="108" t="s">
         <v>439</v>
       </c>
@@ -10920,21 +11886,21 @@
       <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="168"/>
+      <c r="A29" s="173"/>
       <c r="B29" s="87"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="168"/>
+      <c r="A30" s="173"/>
       <c r="B30" s="108"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="168" t="s">
+      <c r="A31" s="173" t="s">
         <v>451</v>
       </c>
       <c r="B31" s="108" t="s">
@@ -10945,7 +11911,7 @@
       <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="168"/>
+      <c r="A32" s="173"/>
       <c r="B32" s="108" t="s">
         <v>453</v>
       </c>
@@ -10954,7 +11920,7 @@
       <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="168"/>
+      <c r="A33" s="173"/>
       <c r="B33" s="25" t="s">
         <v>444</v>
       </c>
@@ -10963,7 +11929,7 @@
       <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="168"/>
+      <c r="A34" s="173"/>
       <c r="B34" s="87" t="s">
         <v>454</v>
       </c>
@@ -10972,21 +11938,21 @@
       <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="168"/>
+      <c r="A35" s="173"/>
       <c r="B35" s="87"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="168"/>
+      <c r="A36" s="173"/>
       <c r="B36" s="87"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="168"/>
+      <c r="A37" s="173"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -11071,23 +12037,23 @@
       <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="171" t="s">
+      <c r="D1" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="176" t="s">
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
       <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="193.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="174" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -11102,13 +12068,13 @@
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="174" t="s">
+      <c r="F2" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="177" t="s">
+      <c r="G2" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="170" t="s">
+      <c r="H2" s="175" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -11117,7 +12083,7 @@
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="169"/>
+      <c r="A3" s="174"/>
       <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
@@ -11127,22 +12093,22 @@
       <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="175"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="170"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="175"/>
       <c r="I3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="178" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="182" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -11157,11 +12123,11 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:12" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="173"/>
+      <c r="A5" s="178"/>
       <c r="B5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="177"/>
+      <c r="C5" s="182"/>
       <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
@@ -11210,16 +12176,16 @@
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="178"/>
+      <c r="C1" s="183"/>
       <c r="D1" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="184" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="39">
@@ -11233,7 +12199,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="179"/>
+      <c r="A3" s="184"/>
       <c r="B3" s="39">
         <v>2</v>
       </c>
@@ -11245,7 +12211,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="185" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="39">
@@ -11259,7 +12225,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="180"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="39">
         <v>4</v>
       </c>
@@ -11271,7 +12237,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="180"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="39">
         <v>5</v>
       </c>
@@ -11283,7 +12249,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="180"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="39">
         <v>6</v>
       </c>
@@ -11295,7 +12261,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="180" t="s">
+      <c r="A8" s="185" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="39">
@@ -11309,7 +12275,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="180"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="39">
         <v>8</v>
       </c>
@@ -11321,7 +12287,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="185" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="39">
@@ -11335,7 +12301,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="180"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="39">
         <v>10</v>
       </c>
@@ -11345,7 +12311,7 @@
       <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="180"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="39">
         <v>11</v>
       </c>
@@ -11367,7 +12333,7 @@
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="173" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="39">
@@ -11381,7 +12347,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="168"/>
+      <c r="A15" s="173"/>
       <c r="B15" s="39">
         <v>14</v>
       </c>
@@ -11393,7 +12359,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="168"/>
+      <c r="A16" s="173"/>
       <c r="B16" s="39">
         <v>15</v>
       </c>
@@ -11543,16 +12509,16 @@
       <c r="B2" s="27">
         <v>26</v>
       </c>
-      <c r="C2" s="165">
+      <c r="C2" s="170">
         <v>14</v>
       </c>
-      <c r="D2" s="181">
+      <c r="D2" s="186">
         <v>1</v>
       </c>
-      <c r="E2" s="165">
+      <c r="E2" s="170">
         <v>0.1</v>
       </c>
-      <c r="F2" s="165">
+      <c r="F2" s="170">
         <f>B6*C2*D2*E2*12</f>
         <v>688.80000000000007</v>
       </c>
@@ -11564,10 +12530,10 @@
       <c r="B3" s="27">
         <v>13</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
@@ -11576,10 +12542,10 @@
       <c r="B4" s="27">
         <v>1</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -11588,10 +12554,10 @@
       <c r="B5" s="27">
         <v>1</v>
       </c>
-      <c r="C5" s="166"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
@@ -11601,10 +12567,10 @@
         <f>SUM(B2:B5)</f>
         <v>41</v>
       </c>
-      <c r="C6" s="167"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14">
@@ -11683,7 +12649,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="164" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -11694,7 +12660,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="160"/>
+      <c r="A3" s="165"/>
       <c r="B3" s="5" t="s">
         <v>64</v>
       </c>
@@ -11703,7 +12669,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="160"/>
+      <c r="A4" s="165"/>
       <c r="B4" s="5" t="s">
         <v>65</v>
       </c>
@@ -11712,7 +12678,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="160"/>
+      <c r="A5" s="165"/>
       <c r="B5" s="5" t="s">
         <v>66</v>
       </c>
@@ -11721,12 +12687,12 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="161"/>
+      <c r="A6" s="166"/>
       <c r="B6" s="5"/>
       <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="165" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -11737,7 +12703,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="160"/>
+      <c r="A8" s="165"/>
       <c r="B8" s="5" t="s">
         <v>71</v>
       </c>
@@ -11746,7 +12712,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="160"/>
+      <c r="A9" s="165"/>
       <c r="B9" s="5" t="s">
         <v>75</v>
       </c>
@@ -11755,7 +12721,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="160"/>
+      <c r="A10" s="165"/>
       <c r="B10" s="5" t="s">
         <v>80</v>
       </c>
@@ -11764,7 +12730,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="160"/>
+      <c r="A11" s="165"/>
       <c r="B11" s="5" t="s">
         <v>84</v>
       </c>
@@ -11773,7 +12739,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="160"/>
+      <c r="A12" s="165"/>
       <c r="B12" s="5" t="s">
         <v>78</v>
       </c>
@@ -11782,22 +12748,22 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="160"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="5"/>
       <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="160"/>
+      <c r="A14" s="165"/>
       <c r="B14" s="5"/>
       <c r="C14" s="30"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="161"/>
+      <c r="A15" s="166"/>
       <c r="B15" s="5"/>
       <c r="C15" s="30"/>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="164" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -11808,7 +12774,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="160"/>
+      <c r="A17" s="165"/>
       <c r="B17" s="5" t="s">
         <v>86</v>
       </c>
@@ -11817,7 +12783,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="160"/>
+      <c r="A18" s="165"/>
       <c r="B18" s="5" t="s">
         <v>70</v>
       </c>
@@ -11826,7 +12792,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="160"/>
+      <c r="A19" s="165"/>
       <c r="B19" s="5" t="s">
         <v>72</v>
       </c>
@@ -11835,7 +12801,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="160"/>
+      <c r="A20" s="165"/>
       <c r="B20" s="5" t="s">
         <v>73</v>
       </c>
@@ -11844,7 +12810,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="160"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="5" t="s">
         <v>74</v>
       </c>
@@ -11853,7 +12819,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="160"/>
+      <c r="A22" s="165"/>
       <c r="B22" s="5" t="s">
         <v>83</v>
       </c>
@@ -11862,12 +12828,12 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="161"/>
+      <c r="A23" s="166"/>
       <c r="B23" s="5"/>
       <c r="C23" s="30"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="159" t="s">
+      <c r="A24" s="164" t="s">
         <v>59</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -11878,7 +12844,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="160"/>
+      <c r="A25" s="165"/>
       <c r="B25" s="5" t="s">
         <v>69</v>
       </c>
@@ -11887,7 +12853,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="160"/>
+      <c r="A26" s="165"/>
       <c r="B26" s="5" t="s">
         <v>76</v>
       </c>
@@ -11896,7 +12862,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="160"/>
+      <c r="A27" s="165"/>
       <c r="B27" s="5" t="s">
         <v>77</v>
       </c>
@@ -11905,12 +12871,12 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="161"/>
+      <c r="A28" s="166"/>
       <c r="B28" s="5"/>
       <c r="C28" s="30"/>
     </row>
     <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="159" t="s">
+      <c r="A29" s="164" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -11921,7 +12887,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="160"/>
+      <c r="A30" s="165"/>
       <c r="B30" s="5" t="s">
         <v>81</v>
       </c>
@@ -11930,7 +12896,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="160"/>
+      <c r="A31" s="165"/>
       <c r="B31" s="5" t="s">
         <v>82</v>
       </c>
@@ -11939,37 +12905,37 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="160"/>
+      <c r="A32" s="165"/>
       <c r="B32" s="5"/>
       <c r="C32" s="30"/>
     </row>
     <row r="33" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="160"/>
+      <c r="A33" s="165"/>
       <c r="B33" s="5"/>
       <c r="C33" s="30"/>
     </row>
     <row r="34" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="160"/>
+      <c r="A34" s="165"/>
       <c r="B34" s="5"/>
       <c r="C34" s="30"/>
     </row>
     <row r="35" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="160"/>
+      <c r="A35" s="165"/>
       <c r="B35" s="5"/>
       <c r="C35" s="30"/>
     </row>
     <row r="36" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="160"/>
+      <c r="A36" s="165"/>
       <c r="B36" s="5"/>
       <c r="C36" s="30"/>
     </row>
     <row r="37" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="160"/>
+      <c r="A37" s="165"/>
       <c r="B37" s="5"/>
       <c r="C37" s="30"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="161"/>
+      <c r="A38" s="166"/>
       <c r="B38" s="5"/>
       <c r="C38" s="30"/>
     </row>
@@ -12019,7 +12985,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="170" t="s">
         <v>89</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -12033,7 +12999,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="167"/>
+      <c r="A3" s="172"/>
       <c r="B3" s="31" t="s">
         <v>142</v>
       </c>
@@ -12045,7 +13011,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="170" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -12059,7 +13025,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="166"/>
+      <c r="A5" s="171"/>
       <c r="B5" s="34" t="s">
         <v>108</v>
       </c>
@@ -12069,7 +13035,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="167"/>
+      <c r="A6" s="172"/>
       <c r="B6" s="33" t="s">
         <v>109</v>
       </c>
@@ -12093,7 +13059,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="170" t="s">
         <v>111</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -12107,7 +13073,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="166"/>
+      <c r="A9" s="171"/>
       <c r="B9" s="31" t="s">
         <v>112</v>
       </c>
@@ -12117,7 +13083,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="167"/>
+      <c r="A10" s="172"/>
       <c r="B10" s="34" t="s">
         <v>116</v>
       </c>
@@ -12127,7 +13093,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="170" t="s">
         <v>120</v>
       </c>
       <c r="B11" s="36" t="s">
@@ -12141,7 +13107,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="167"/>
+      <c r="A12" s="172"/>
       <c r="B12" s="35" t="s">
         <v>112</v>
       </c>
@@ -12177,7 +13143,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="170" t="s">
         <v>122</v>
       </c>
       <c r="B15" s="31" t="s">
@@ -12191,7 +13157,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="166"/>
+      <c r="A16" s="171"/>
       <c r="B16" s="31" t="s">
         <v>134</v>
       </c>
@@ -12203,7 +13169,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="166"/>
+      <c r="A17" s="171"/>
       <c r="B17" s="18" t="s">
         <v>136</v>
       </c>
@@ -12215,7 +13181,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="167"/>
+      <c r="A18" s="172"/>
       <c r="B18" s="18" t="s">
         <v>138</v>
       </c>
@@ -12241,7 +13207,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="165" t="s">
+      <c r="A20" s="170" t="s">
         <v>123</v>
       </c>
       <c r="B20" s="33" t="s">
@@ -12255,7 +13221,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="167"/>
+      <c r="A21" s="172"/>
       <c r="B21" s="33" t="s">
         <v>147</v>
       </c>
